--- a/sdr2.xlsx
+++ b/sdr2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="26835" windowHeight="11325"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="26835" windowHeight="11325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
   <si>
     <t>RAS</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Read bank 0,1; refresh</t>
+  </si>
+  <si>
+    <t>Read bank 0,1;</t>
+  </si>
+  <si>
+    <t>Read bank 0; refresh</t>
+  </si>
+  <si>
+    <t>Read bank 1; refresh</t>
   </si>
 </sst>
 </file>
@@ -163,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -251,11 +260,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -411,9 +457,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -436,6 +479,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -739,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -751,40 +827,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
     </row>
     <row r="2" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -1053,7 +1129,7 @@
       <c r="O6" s="64"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
-      <c r="R6" s="72"/>
+      <c r="R6" s="71"/>
       <c r="S6" s="40"/>
       <c r="T6" s="68"/>
       <c r="U6" s="26"/>
@@ -1061,7 +1137,7 @@
       <c r="W6" s="29"/>
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
-      <c r="Z6" s="74"/>
+      <c r="Z6" s="73"/>
       <c r="AA6" s="18"/>
       <c r="AB6" s="25"/>
       <c r="AC6" s="26"/>
@@ -1120,7 +1196,7 @@
       </c>
       <c r="AE7" s="16"/>
       <c r="AF7" s="8"/>
-      <c r="AG7" s="75">
+      <c r="AG7" s="74">
         <v>3</v>
       </c>
       <c r="AH7" s="18"/>
@@ -1129,7 +1205,7 @@
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="77">
         <v>3</v>
       </c>
       <c r="C8" s="19"/>
@@ -1181,40 +1257,40 @@
     </row>
     <row r="9" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="81"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="81"/>
     </row>
     <row r="11" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
@@ -1493,10 +1569,10 @@
       <c r="AA15" s="27"/>
       <c r="AB15" s="25"/>
       <c r="AC15" s="31"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="80"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
     </row>
     <row r="16" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1519,7 +1595,7 @@
       </c>
       <c r="O16" s="42"/>
       <c r="P16" s="52"/>
-      <c r="Q16" s="76">
+      <c r="Q16" s="75">
         <v>3</v>
       </c>
       <c r="R16" s="52"/>
@@ -1552,7 +1628,7 @@
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B17" s="77">
         <v>3</v>
       </c>
       <c r="C17" s="19"/>
@@ -1639,40 +1715,40 @@
       <c r="AL18" s="18"/>
     </row>
     <row r="19" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="81"/>
       <c r="AH19" s="18"/>
     </row>
     <row r="20" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1801,7 +1877,7 @@
       </c>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
-      <c r="P21" s="73"/>
+      <c r="P21" s="72"/>
       <c r="Q21" s="30"/>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
@@ -1852,7 +1928,7 @@
       <c r="O22" s="59">
         <v>3</v>
       </c>
-      <c r="P22" s="74"/>
+      <c r="P22" s="73"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
@@ -1897,7 +1973,7 @@
       <c r="M23" s="51"/>
       <c r="N23" s="52"/>
       <c r="O23" s="52"/>
-      <c r="P23" s="74"/>
+      <c r="P23" s="73"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
@@ -1958,7 +2034,7 @@
       <c r="AI24" s="18"/>
     </row>
     <row r="25" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="78" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="37"/>
@@ -2006,10 +2082,10 @@
       <c r="AL25" s="18"/>
     </row>
     <row r="26" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="78">
+      <c r="B26" s="77">
         <v>3</v>
       </c>
       <c r="C26" s="19"/>
@@ -2046,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="AF26" s="23"/>
-      <c r="AG26" s="77"/>
+      <c r="AG26" s="76"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
@@ -2095,40 +2171,40 @@
     </row>
     <row r="28" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="69"/>
-      <c r="AG28" s="69"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="81"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="81"/>
     </row>
     <row r="29" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
@@ -2277,7 +2353,7 @@
       <c r="AC30" s="16"/>
       <c r="AD30" s="16"/>
       <c r="AE30" s="16"/>
-      <c r="AF30" s="70"/>
+      <c r="AF30" s="69"/>
       <c r="AG30" s="17"/>
     </row>
     <row r="31" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2354,7 +2430,7 @@
       <c r="R32" s="21"/>
       <c r="S32" s="19"/>
       <c r="T32" s="12"/>
-      <c r="U32" s="72"/>
+      <c r="U32" s="71"/>
       <c r="V32" s="19"/>
       <c r="W32" s="12"/>
       <c r="X32" s="21"/>
@@ -2397,7 +2473,7 @@
       <c r="T33" s="68"/>
       <c r="U33" s="66"/>
       <c r="V33" s="40"/>
-      <c r="W33" s="71"/>
+      <c r="W33" s="70"/>
       <c r="X33" s="66"/>
       <c r="Y33" s="67"/>
       <c r="Z33" s="27"/>
@@ -2424,7 +2500,7 @@
       </c>
       <c r="G34" s="42"/>
       <c r="H34" s="64"/>
-      <c r="I34" s="76">
+      <c r="I34" s="75">
         <v>1</v>
       </c>
       <c r="J34" s="52"/>
@@ -2512,40 +2588,40 @@
     <row r="36" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="69"/>
-      <c r="AE37" s="69"/>
-      <c r="AF37" s="69"/>
-      <c r="AG37" s="69"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="81"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="81"/>
+      <c r="Z37" s="81"/>
+      <c r="AA37" s="81"/>
+      <c r="AB37" s="81"/>
+      <c r="AC37" s="81"/>
+      <c r="AD37" s="81"/>
+      <c r="AE37" s="81"/>
+      <c r="AF37" s="81"/>
+      <c r="AG37" s="81"/>
     </row>
     <row r="38" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
@@ -2684,7 +2760,7 @@
       </c>
       <c r="V39" s="7"/>
       <c r="W39" s="8"/>
-      <c r="X39" s="73"/>
+      <c r="X39" s="72"/>
       <c r="Y39" s="30"/>
       <c r="Z39" s="16"/>
       <c r="AA39" s="16"/>
@@ -2733,7 +2809,7 @@
       <c r="W40" s="10">
         <v>1</v>
       </c>
-      <c r="X40" s="74"/>
+      <c r="X40" s="73"/>
       <c r="Y40" s="18"/>
       <c r="Z40" s="19"/>
       <c r="AA40" s="19"/>
@@ -2772,7 +2848,7 @@
       <c r="U41" s="21"/>
       <c r="V41" s="19"/>
       <c r="W41" s="12"/>
-      <c r="X41" s="74"/>
+      <c r="X41" s="73"/>
       <c r="Y41" s="18"/>
       <c r="Z41" s="19"/>
       <c r="AA41" s="19"/>
@@ -2833,7 +2909,7 @@
       </c>
       <c r="G43" s="42"/>
       <c r="H43" s="64"/>
-      <c r="I43" s="76">
+      <c r="I43" s="75">
         <v>1</v>
       </c>
       <c r="J43" s="52"/>
@@ -2933,24 +3009,1577 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AH117"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="51" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+    </row>
+    <row r="2" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>15</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>2</v>
+      </c>
+      <c r="U2" s="2">
+        <v>3</v>
+      </c>
+      <c r="V2" s="2">
+        <v>4</v>
+      </c>
+      <c r="W2" s="2">
+        <v>5</v>
+      </c>
+      <c r="X2" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+    </row>
+    <row r="4" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="34">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+    </row>
+    <row r="5" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="83">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+    </row>
+    <row r="6" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+    </row>
+    <row r="7" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="91">
+        <v>0</v>
+      </c>
+      <c r="G7" s="92"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="91">
+        <v>1</v>
+      </c>
+      <c r="O7" s="92"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="85"/>
+    </row>
+    <row r="8" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="81"/>
+    </row>
+    <row r="10" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9</v>
+      </c>
+      <c r="L10" s="2">
+        <v>10</v>
+      </c>
+      <c r="M10" s="2">
+        <v>11</v>
+      </c>
+      <c r="N10" s="2">
+        <v>12</v>
+      </c>
+      <c r="O10" s="2">
+        <v>13</v>
+      </c>
+      <c r="P10" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>15</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>2</v>
+      </c>
+      <c r="U10" s="2">
+        <v>3</v>
+      </c>
+      <c r="V10" s="2">
+        <v>4</v>
+      </c>
+      <c r="W10" s="2">
+        <v>5</v>
+      </c>
+      <c r="X10" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>14</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+    </row>
+    <row r="12" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="34">
+        <v>1</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+    </row>
+    <row r="13" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="83">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+    </row>
+    <row r="14" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+    </row>
+    <row r="15" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="91">
+        <v>1</v>
+      </c>
+      <c r="O15" s="92"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+    </row>
+    <row r="16" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="81"/>
+    </row>
+    <row r="18" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2">
+        <v>9</v>
+      </c>
+      <c r="L18" s="2">
+        <v>10</v>
+      </c>
+      <c r="M18" s="2">
+        <v>11</v>
+      </c>
+      <c r="N18" s="2">
+        <v>12</v>
+      </c>
+      <c r="O18" s="2">
+        <v>13</v>
+      </c>
+      <c r="P18" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>15</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
+        <v>2</v>
+      </c>
+      <c r="U18" s="2">
+        <v>3</v>
+      </c>
+      <c r="V18" s="2">
+        <v>4</v>
+      </c>
+      <c r="W18" s="2">
+        <v>5</v>
+      </c>
+      <c r="X18" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>14</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+    </row>
+    <row r="20" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="34">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+    </row>
+    <row r="21" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="83">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+    </row>
+    <row r="22" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="88">
+        <v>0</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+    </row>
+    <row r="23" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="91">
+        <v>0</v>
+      </c>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+    </row>
+    <row r="24" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:AG1"/>
+    <mergeCell ref="B9:AG9"/>
+    <mergeCell ref="B17:AG17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="33" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+    </row>
+    <row r="2" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>15</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>2</v>
+      </c>
+      <c r="U2" s="2">
+        <v>3</v>
+      </c>
+      <c r="V2" s="2">
+        <v>4</v>
+      </c>
+      <c r="W2" s="2">
+        <v>5</v>
+      </c>
+      <c r="X2" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="84">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="84">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+    </row>
+    <row r="4" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="34">
+        <v>1</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="34">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+    </row>
+    <row r="5" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="36">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="36">
+        <v>1</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+    </row>
+    <row r="6" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="86">
+        <v>1</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+    </row>
+    <row r="7" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="74">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="74">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+    </row>
+    <row r="8" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:AG1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sdr2.xlsx
+++ b/sdr2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="26835" windowHeight="11325" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="26835" windowHeight="11325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="37">
   <si>
     <t>RAS</t>
   </si>
@@ -65,12 +65,75 @@
   <si>
     <t>Read bank 1; refresh</t>
   </si>
+  <si>
+    <t>2C0</t>
+  </si>
+  <si>
+    <t>1C0</t>
+  </si>
+  <si>
+    <t>1C1</t>
+  </si>
+  <si>
+    <t>1C2</t>
+  </si>
+  <si>
+    <t>1C3</t>
+  </si>
+  <si>
+    <t>2C1</t>
+  </si>
+  <si>
+    <t>2CR</t>
+  </si>
+  <si>
+    <t>1C23</t>
+  </si>
+  <si>
+    <t>1CR</t>
+  </si>
+  <si>
+    <t>1C01</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chip 2 read bank 0 </t>
+  </si>
+  <si>
+    <t>chip 2 read bank 1</t>
+  </si>
+  <si>
+    <t>chip 2 refresh</t>
+  </si>
+  <si>
+    <t>chip 2 write bank 1</t>
+  </si>
+  <si>
+    <t>chip 1 write bank 2/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chip 1 read bank 0&amp;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chip 1 read bank 2&amp;3</t>
+  </si>
+  <si>
+    <t>chip 1 refresh</t>
+  </si>
+  <si>
+    <t>chip 1 write bank 0/1</t>
+  </si>
+  <si>
+    <t>chip 2 write bank 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +168,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,8 +241,63 @@
         <bgColor theme="7" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor theme="0" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -297,11 +422,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -479,9 +619,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -490,9 +627,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,6 +644,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,7 +995,7 @@
   <dimension ref="A1:AL46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="AB39" sqref="AB39:AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -827,40 +1006,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -1257,40 +1436,40 @@
     </row>
     <row r="9" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="81"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="81"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="107"/>
+      <c r="AG10" s="107"/>
     </row>
     <row r="11" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
@@ -1715,40 +1894,40 @@
       <c r="AL18" s="18"/>
     </row>
     <row r="19" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="81"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="107"/>
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="107"/>
+      <c r="AD19" s="107"/>
+      <c r="AE19" s="107"/>
+      <c r="AF19" s="107"/>
+      <c r="AG19" s="107"/>
       <c r="AH19" s="18"/>
     </row>
     <row r="20" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2171,40 +2350,40 @@
     </row>
     <row r="28" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="81"/>
-      <c r="AF28" s="81"/>
-      <c r="AG28" s="81"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="107"/>
+      <c r="V28" s="107"/>
+      <c r="W28" s="107"/>
+      <c r="X28" s="107"/>
+      <c r="Y28" s="107"/>
+      <c r="Z28" s="107"/>
+      <c r="AA28" s="107"/>
+      <c r="AB28" s="107"/>
+      <c r="AC28" s="107"/>
+      <c r="AD28" s="107"/>
+      <c r="AE28" s="107"/>
+      <c r="AF28" s="107"/>
+      <c r="AG28" s="107"/>
     </row>
     <row r="29" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
@@ -2588,40 +2767,40 @@
     <row r="36" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="81"/>
-      <c r="V37" s="81"/>
-      <c r="W37" s="81"/>
-      <c r="X37" s="81"/>
-      <c r="Y37" s="81"/>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="81"/>
-      <c r="AB37" s="81"/>
-      <c r="AC37" s="81"/>
-      <c r="AD37" s="81"/>
-      <c r="AE37" s="81"/>
-      <c r="AF37" s="81"/>
-      <c r="AG37" s="81"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="107"/>
+      <c r="W37" s="107"/>
+      <c r="X37" s="107"/>
+      <c r="Y37" s="107"/>
+      <c r="Z37" s="107"/>
+      <c r="AA37" s="107"/>
+      <c r="AB37" s="107"/>
+      <c r="AC37" s="107"/>
+      <c r="AD37" s="107"/>
+      <c r="AE37" s="107"/>
+      <c r="AF37" s="107"/>
+      <c r="AG37" s="107"/>
     </row>
     <row r="38" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
@@ -3011,7 +3190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -3023,40 +3202,40 @@
   <sheetData>
     <row r="1" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
     </row>
     <row r="2" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -3254,8 +3433,8 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="83">
+      <c r="G5" s="84"/>
+      <c r="H5" s="82">
         <v>0</v>
       </c>
       <c r="I5" s="18"/>
@@ -3264,8 +3443,8 @@
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83">
+      <c r="O5" s="84"/>
+      <c r="P5" s="82">
         <v>1</v>
       </c>
       <c r="Q5" s="18"/>
@@ -3295,8 +3474,8 @@
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88">
+      <c r="G6" s="85"/>
+      <c r="H6" s="86">
         <v>0</v>
       </c>
       <c r="I6" s="18"/>
@@ -3305,8 +3484,8 @@
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
       <c r="N6" s="67"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="88">
+      <c r="O6" s="85"/>
+      <c r="P6" s="86">
         <v>1</v>
       </c>
       <c r="Q6" s="18"/>
@@ -3335,21 +3514,21 @@
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="91">
-        <v>0</v>
-      </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="93"/>
+      <c r="F7" s="89">
+        <v>0</v>
+      </c>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="40"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
-      <c r="N7" s="91">
-        <v>1</v>
-      </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="94"/>
+      <c r="N7" s="89">
+        <v>1</v>
+      </c>
+      <c r="O7" s="90"/>
+      <c r="P7" s="92"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
@@ -3367,7 +3546,7 @@
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
-      <c r="AH7" s="85"/>
+      <c r="AH7" s="84"/>
     </row>
     <row r="8" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -3406,40 +3585,40 @@
     </row>
     <row r="9" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="81"/>
-      <c r="AE9" s="81"/>
-      <c r="AF9" s="81"/>
-      <c r="AG9" s="81"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
+      <c r="AF9" s="107"/>
+      <c r="AG9" s="107"/>
     </row>
     <row r="10" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
@@ -3554,7 +3733,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="82"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="18"/>
       <c r="J11" s="6">
         <v>1</v>
@@ -3635,7 +3814,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="89"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="12"/>
       <c r="I13" s="18"/>
       <c r="J13" s="21"/>
@@ -3643,8 +3822,8 @@
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="83">
+      <c r="O13" s="84"/>
+      <c r="P13" s="82">
         <v>1</v>
       </c>
       <c r="Q13" s="18"/>
@@ -3674,7 +3853,7 @@
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
-      <c r="G14" s="90"/>
+      <c r="G14" s="88"/>
       <c r="H14" s="11"/>
       <c r="I14" s="18"/>
       <c r="J14" s="66"/>
@@ -3682,8 +3861,8 @@
       <c r="L14" s="67"/>
       <c r="M14" s="67"/>
       <c r="N14" s="67"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="88">
+      <c r="O14" s="85"/>
+      <c r="P14" s="86">
         <v>1</v>
       </c>
       <c r="Q14" s="18"/>
@@ -3712,19 +3891,19 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="40"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="91">
-        <v>1</v>
-      </c>
-      <c r="O15" s="92"/>
-      <c r="P15" s="94"/>
+      <c r="N15" s="89">
+        <v>1</v>
+      </c>
+      <c r="O15" s="90"/>
+      <c r="P15" s="92"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
@@ -3746,40 +3925,40 @@
     <row r="16" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="107"/>
+      <c r="AD17" s="107"/>
+      <c r="AE17" s="107"/>
+      <c r="AF17" s="107"/>
+      <c r="AG17" s="107"/>
     </row>
     <row r="18" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
@@ -3975,8 +4154,8 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="83">
+      <c r="G21" s="84"/>
+      <c r="H21" s="82">
         <v>0</v>
       </c>
       <c r="I21" s="18"/>
@@ -3985,7 +4164,7 @@
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
-      <c r="O21" s="89"/>
+      <c r="O21" s="87"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="19"/>
@@ -4014,8 +4193,8 @@
       <c r="D22" s="67"/>
       <c r="E22" s="67"/>
       <c r="F22" s="67"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="88">
+      <c r="G22" s="85"/>
+      <c r="H22" s="86">
         <v>0</v>
       </c>
       <c r="I22" s="18"/>
@@ -4024,7 +4203,7 @@
       <c r="L22" s="67"/>
       <c r="M22" s="67"/>
       <c r="N22" s="67"/>
-      <c r="O22" s="90"/>
+      <c r="O22" s="88"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="40"/>
@@ -4052,19 +4231,19 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="91">
-        <v>0</v>
-      </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="93"/>
+      <c r="F23" s="89">
+        <v>0</v>
+      </c>
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="40"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="94"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="92"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
@@ -4190,396 +4369,1107 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:BN13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AU16" sqref="AU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="33" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="69" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="81" t="s">
+    <row r="1" spans="1:66" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="109"/>
+      <c r="AJ1" s="109"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="109"/>
+      <c r="AM1" s="109"/>
+      <c r="AN1" s="109"/>
+      <c r="AO1" s="109"/>
+      <c r="AP1" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" s="109"/>
+      <c r="AR1" s="109"/>
+      <c r="AS1" s="109"/>
+      <c r="AT1" s="109"/>
+      <c r="AU1" s="109"/>
+      <c r="AV1" s="109"/>
+      <c r="AW1" s="109"/>
+      <c r="AX1" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY1" s="110"/>
+      <c r="AZ1" s="110"/>
+      <c r="BA1" s="110"/>
+      <c r="BB1" s="110"/>
+      <c r="BC1" s="110"/>
+      <c r="BD1" s="110"/>
+      <c r="BE1" s="110"/>
+      <c r="BF1" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG1" s="109"/>
+      <c r="BH1" s="109"/>
+      <c r="BI1" s="109"/>
+      <c r="BJ1" s="109"/>
+      <c r="BK1" s="109"/>
+      <c r="BL1" s="109"/>
+      <c r="BM1" s="109"/>
+    </row>
+    <row r="2" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
+      <c r="AN2" s="108"/>
+      <c r="AO2" s="108"/>
+      <c r="AP2" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ2" s="108"/>
+      <c r="AR2" s="108"/>
+      <c r="AS2" s="108"/>
+      <c r="AT2" s="108"/>
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="108"/>
+      <c r="AW2" s="108"/>
+      <c r="AX2" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" s="108"/>
+      <c r="AZ2" s="108"/>
+      <c r="BA2" s="108"/>
+      <c r="BB2" s="108"/>
+      <c r="BC2" s="108"/>
+      <c r="BD2" s="108"/>
+      <c r="BE2" s="108"/>
+      <c r="BF2" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG2" s="108"/>
+      <c r="BH2" s="108"/>
+      <c r="BI2" s="108"/>
+      <c r="BJ2" s="108"/>
+      <c r="BK2" s="108"/>
+      <c r="BL2" s="108"/>
+      <c r="BM2" s="108"/>
+    </row>
+    <row r="3" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
         <v>13</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-    </row>
-    <row r="2" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="P3" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="V3" s="2">
+        <v>4</v>
+      </c>
+      <c r="W3" s="2">
+        <v>5</v>
+      </c>
+      <c r="X3" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="AK3" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="AL3" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="AM3" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="AN3" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="2">
+      <c r="AO3" s="2">
         <v>7</v>
       </c>
-      <c r="J2" s="2">
+      <c r="AP3" s="2">
         <v>8</v>
       </c>
-      <c r="K2" s="2">
+      <c r="AQ3" s="2">
         <v>9</v>
       </c>
-      <c r="L2" s="2">
+      <c r="AR3" s="2">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="AS3" s="2">
         <v>11</v>
       </c>
-      <c r="N2" s="2">
+      <c r="AT3" s="2">
         <v>12</v>
       </c>
-      <c r="O2" s="2">
+      <c r="AU3" s="2">
         <v>13</v>
       </c>
-      <c r="P2" s="2">
+      <c r="AV3" s="2">
         <v>14</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="AW3" s="2">
         <v>15</v>
       </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2">
+      <c r="AX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="2">
         <v>2</v>
       </c>
-      <c r="U2" s="2">
+      <c r="BA3" s="2">
         <v>3</v>
       </c>
-      <c r="V2" s="2">
+      <c r="BB3" s="2">
         <v>4</v>
       </c>
-      <c r="W2" s="2">
+      <c r="BC3" s="2">
         <v>5</v>
       </c>
-      <c r="X2" s="2">
+      <c r="BD3" s="2">
         <v>6</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="BE3" s="2">
         <v>7</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="BF3" s="2">
         <v>8</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="BG3" s="2">
         <v>9</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="BH3" s="2">
         <v>10</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="BI3" s="2">
         <v>11</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="BJ3" s="2">
         <v>12</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="BK3" s="2">
         <v>13</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="BL3" s="2">
         <v>14</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="BM3" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="84">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="84">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-    </row>
-    <row r="4" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BN3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="34">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="34">
-        <v>1</v>
-      </c>
-      <c r="H4" s="34">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="34">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
+      <c r="M4" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="100" t="s">
+        <v>21</v>
+      </c>
       <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="18"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
       <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
+      <c r="S4" s="87"/>
       <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="U4" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="100" t="s">
+        <v>22</v>
+      </c>
       <c r="W4" s="19"/>
       <c r="X4" s="40"/>
       <c r="Y4" s="40"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
+      <c r="Z4" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="87"/>
       <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
+      <c r="AC4" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="100" t="s">
+        <v>22</v>
+      </c>
       <c r="AE4" s="19"/>
       <c r="AF4" s="40"/>
       <c r="AG4" s="40"/>
-    </row>
-    <row r="5" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH4" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL4" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT4" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="BA4" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB4" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF4" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI4" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ4" s="100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="36">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="36">
-        <v>1</v>
-      </c>
+      <c r="F5" s="87"/>
+      <c r="G5" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="87"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="18"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="101" t="s">
+        <v>21</v>
+      </c>
       <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
+      <c r="V5" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="34" t="s">
+        <v>19</v>
+      </c>
       <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-    </row>
-    <row r="6" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD5" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="99"/>
+      <c r="AJ5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="87"/>
+      <c r="AM5" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="87"/>
+      <c r="AU5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC5" s="87"/>
+      <c r="BD5" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BH5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="87"/>
+      <c r="BK5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL5" s="101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="86">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="86">
-        <v>1</v>
-      </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="X6" s="40"/>
       <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
       <c r="AG6" s="40"/>
-    </row>
-    <row r="7" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="40"/>
+      <c r="AZ6" s="19"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE6" s="40"/>
+      <c r="BF6" s="19"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="19"/>
+      <c r="BL6" s="60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="74">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="74">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="96" t="s">
+        <v>16</v>
       </c>
       <c r="J7" s="19"/>
-      <c r="K7" s="40"/>
+      <c r="K7" s="84"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="M7" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="96" t="s">
+        <v>21</v>
+      </c>
       <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
       <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="40"/>
+      <c r="U7" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="X7" s="19"/>
       <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
+      <c r="Z7" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="95" t="s">
+        <v>20</v>
+      </c>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
-    </row>
-    <row r="8" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="AH7" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ7" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK7" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL7" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM7" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT7" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU7" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA7" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB7" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE7" s="19"/>
+      <c r="BF7" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH7" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI7" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ7" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK7" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL7" s="96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="103" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="40"/>
+      <c r="AS8" s="40"/>
+      <c r="AT8" s="40"/>
+      <c r="AU8" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="40"/>
+      <c r="AX8" s="99"/>
+      <c r="BD8" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL8" s="104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="97"/>
+      <c r="K9" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="40"/>
+      <c r="AO9" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="99"/>
+      <c r="AY9" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ9" s="19"/>
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BJ9" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="BN9" s="19"/>
+    </row>
+    <row r="10" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="BG10" s="19"/>
+      <c r="BH10" s="19"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL10" s="19"/>
+      <c r="BM10" s="19"/>
+      <c r="BN10" s="74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="AL12" s="105"/>
+      <c r="AM12" s="105"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AT12" s="105"/>
+      <c r="AU12" s="105"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="99"/>
+      <c r="AW13" s="99"/>
+      <c r="BB13" s="106"/>
+      <c r="BC13" s="106"/>
+      <c r="BD13" s="99"/>
+      <c r="BE13" s="99"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:AG1"/>
+  <mergeCells count="16">
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="BF1:BM1"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="AP1:AW1"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="AX1:BE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sdr2.xlsx
+++ b/sdr2.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="26835" windowHeight="11325" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="26835" windowHeight="11325" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист3 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист3 (3)" sheetId="6" r:id="rId5"/>
+    <sheet name="CL3" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="37">
   <si>
     <t>RAS</t>
   </si>
@@ -176,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +299,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -437,11 +446,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -679,6 +734,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -689,6 +786,70 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,40 +1167,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
     </row>
     <row r="2" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -1436,40 +1597,40 @@
     </row>
     <row r="9" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="107"/>
-      <c r="AD10" s="107"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="107"/>
-      <c r="AG10" s="107"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="123"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="123"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="123"/>
+      <c r="AC10" s="123"/>
+      <c r="AD10" s="123"/>
+      <c r="AE10" s="123"/>
+      <c r="AF10" s="123"/>
+      <c r="AG10" s="123"/>
     </row>
     <row r="11" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
@@ -1894,40 +2055,40 @@
       <c r="AL18" s="18"/>
     </row>
     <row r="19" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="107"/>
-      <c r="AF19" s="107"/>
-      <c r="AG19" s="107"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="123"/>
+      <c r="AA19" s="123"/>
+      <c r="AB19" s="123"/>
+      <c r="AC19" s="123"/>
+      <c r="AD19" s="123"/>
+      <c r="AE19" s="123"/>
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="123"/>
       <c r="AH19" s="18"/>
     </row>
     <row r="20" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2350,40 +2511,40 @@
     </row>
     <row r="28" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="107"/>
-      <c r="U28" s="107"/>
-      <c r="V28" s="107"/>
-      <c r="W28" s="107"/>
-      <c r="X28" s="107"/>
-      <c r="Y28" s="107"/>
-      <c r="Z28" s="107"/>
-      <c r="AA28" s="107"/>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="107"/>
-      <c r="AD28" s="107"/>
-      <c r="AE28" s="107"/>
-      <c r="AF28" s="107"/>
-      <c r="AG28" s="107"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="123"/>
+      <c r="U28" s="123"/>
+      <c r="V28" s="123"/>
+      <c r="W28" s="123"/>
+      <c r="X28" s="123"/>
+      <c r="Y28" s="123"/>
+      <c r="Z28" s="123"/>
+      <c r="AA28" s="123"/>
+      <c r="AB28" s="123"/>
+      <c r="AC28" s="123"/>
+      <c r="AD28" s="123"/>
+      <c r="AE28" s="123"/>
+      <c r="AF28" s="123"/>
+      <c r="AG28" s="123"/>
     </row>
     <row r="29" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
@@ -2767,40 +2928,40 @@
     <row r="36" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="107"/>
-      <c r="U37" s="107"/>
-      <c r="V37" s="107"/>
-      <c r="W37" s="107"/>
-      <c r="X37" s="107"/>
-      <c r="Y37" s="107"/>
-      <c r="Z37" s="107"/>
-      <c r="AA37" s="107"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="107"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="107"/>
-      <c r="AF37" s="107"/>
-      <c r="AG37" s="107"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="123"/>
+      <c r="U37" s="123"/>
+      <c r="V37" s="123"/>
+      <c r="W37" s="123"/>
+      <c r="X37" s="123"/>
+      <c r="Y37" s="123"/>
+      <c r="Z37" s="123"/>
+      <c r="AA37" s="123"/>
+      <c r="AB37" s="123"/>
+      <c r="AC37" s="123"/>
+      <c r="AD37" s="123"/>
+      <c r="AE37" s="123"/>
+      <c r="AF37" s="123"/>
+      <c r="AG37" s="123"/>
     </row>
     <row r="38" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
@@ -3202,40 +3363,40 @@
   <sheetData>
     <row r="1" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
     </row>
     <row r="2" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -3585,40 +3746,40 @@
     </row>
     <row r="9" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="107"/>
-      <c r="AG9" s="107"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="123"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="123"/>
+      <c r="AG9" s="123"/>
     </row>
     <row r="10" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
@@ -3925,40 +4086,40 @@
     <row r="16" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="107"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="123"/>
+      <c r="X17" s="123"/>
+      <c r="Y17" s="123"/>
+      <c r="Z17" s="123"/>
+      <c r="AA17" s="123"/>
+      <c r="AB17" s="123"/>
+      <c r="AC17" s="123"/>
+      <c r="AD17" s="123"/>
+      <c r="AE17" s="123"/>
+      <c r="AF17" s="123"/>
+      <c r="AG17" s="123"/>
     </row>
     <row r="18" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
@@ -4371,7 +4532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AU16" sqref="AU16"/>
     </sheetView>
   </sheetViews>
@@ -4382,168 +4543,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109" t="s">
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109" t="s">
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109" t="s">
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="109" t="s">
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="109"/>
-      <c r="AJ1" s="109"/>
-      <c r="AK1" s="109"/>
-      <c r="AL1" s="109"/>
-      <c r="AM1" s="109"/>
-      <c r="AN1" s="109"/>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109" t="s">
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="109"/>
-      <c r="AR1" s="109"/>
-      <c r="AS1" s="109"/>
-      <c r="AT1" s="109"/>
-      <c r="AU1" s="109"/>
-      <c r="AV1" s="109"/>
-      <c r="AW1" s="109"/>
-      <c r="AX1" s="110" t="s">
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="125"/>
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="125"/>
+      <c r="AX1" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="110"/>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="110"/>
-      <c r="BE1" s="110"/>
-      <c r="BF1" s="109" t="s">
+      <c r="AY1" s="126"/>
+      <c r="AZ1" s="126"/>
+      <c r="BA1" s="126"/>
+      <c r="BB1" s="126"/>
+      <c r="BC1" s="126"/>
+      <c r="BD1" s="126"/>
+      <c r="BE1" s="126"/>
+      <c r="BF1" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="BG1" s="109"/>
-      <c r="BH1" s="109"/>
-      <c r="BI1" s="109"/>
-      <c r="BJ1" s="109"/>
-      <c r="BK1" s="109"/>
-      <c r="BL1" s="109"/>
-      <c r="BM1" s="109"/>
+      <c r="BG1" s="125"/>
+      <c r="BH1" s="125"/>
+      <c r="BI1" s="125"/>
+      <c r="BJ1" s="125"/>
+      <c r="BK1" s="125"/>
+      <c r="BL1" s="125"/>
+      <c r="BM1" s="125"/>
     </row>
     <row r="2" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108" t="s">
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108" t="s">
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108" t="s">
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="124"/>
+      <c r="AH2" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
-      <c r="AN2" s="108"/>
-      <c r="AO2" s="108"/>
-      <c r="AP2" s="108" t="s">
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="124"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="124"/>
+      <c r="AO2" s="124"/>
+      <c r="AP2" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="AQ2" s="108"/>
-      <c r="AR2" s="108"/>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="108"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="108"/>
-      <c r="AW2" s="108"/>
-      <c r="AX2" s="108" t="s">
+      <c r="AQ2" s="124"/>
+      <c r="AR2" s="124"/>
+      <c r="AS2" s="124"/>
+      <c r="AT2" s="124"/>
+      <c r="AU2" s="124"/>
+      <c r="AV2" s="124"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="AY2" s="108"/>
-      <c r="AZ2" s="108"/>
-      <c r="BA2" s="108"/>
-      <c r="BB2" s="108"/>
-      <c r="BC2" s="108"/>
-      <c r="BD2" s="108"/>
-      <c r="BE2" s="108"/>
-      <c r="BF2" s="108" t="s">
+      <c r="AY2" s="124"/>
+      <c r="AZ2" s="124"/>
+      <c r="BA2" s="124"/>
+      <c r="BB2" s="124"/>
+      <c r="BC2" s="124"/>
+      <c r="BD2" s="124"/>
+      <c r="BE2" s="124"/>
+      <c r="BF2" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="BG2" s="108"/>
-      <c r="BH2" s="108"/>
-      <c r="BI2" s="108"/>
-      <c r="BJ2" s="108"/>
-      <c r="BK2" s="108"/>
-      <c r="BL2" s="108"/>
-      <c r="BM2" s="108"/>
+      <c r="BG2" s="124"/>
+      <c r="BH2" s="124"/>
+      <c r="BI2" s="124"/>
+      <c r="BJ2" s="124"/>
+      <c r="BK2" s="124"/>
+      <c r="BL2" s="124"/>
+      <c r="BM2" s="124"/>
     </row>
     <row r="3" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -5472,4 +5633,4700 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CD13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BW18" sqref="BW18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="33" width="3.28515625" customWidth="1"/>
+    <col min="34" max="85" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:82" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="125" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="125"/>
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="125"/>
+      <c r="AX1" s="125" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY1" s="125"/>
+      <c r="AZ1" s="125"/>
+      <c r="BA1" s="125"/>
+      <c r="BB1" s="125"/>
+      <c r="BC1" s="125"/>
+      <c r="BD1" s="125"/>
+      <c r="BE1" s="125"/>
+      <c r="BF1" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG1" s="125"/>
+      <c r="BH1" s="125"/>
+      <c r="BI1" s="125"/>
+      <c r="BJ1" s="125"/>
+      <c r="BK1" s="125"/>
+      <c r="BL1" s="125"/>
+      <c r="BM1" s="125"/>
+      <c r="BN1" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO1" s="126"/>
+      <c r="BP1" s="126"/>
+      <c r="BQ1" s="126"/>
+      <c r="BR1" s="126"/>
+      <c r="BS1" s="126"/>
+      <c r="BT1" s="126"/>
+      <c r="BU1" s="126"/>
+      <c r="BV1" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW1" s="125"/>
+      <c r="BX1" s="125"/>
+      <c r="BY1" s="125"/>
+      <c r="BZ1" s="125"/>
+      <c r="CA1" s="125"/>
+      <c r="CB1" s="125"/>
+      <c r="CC1" s="125"/>
+    </row>
+    <row r="2" spans="1:82" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="124"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="124"/>
+      <c r="AO2" s="124"/>
+      <c r="AP2" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ2" s="124"/>
+      <c r="AR2" s="124"/>
+      <c r="AS2" s="124"/>
+      <c r="AT2" s="124"/>
+      <c r="AU2" s="124"/>
+      <c r="AV2" s="124"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY2" s="124"/>
+      <c r="AZ2" s="124"/>
+      <c r="BA2" s="124"/>
+      <c r="BB2" s="124"/>
+      <c r="BC2" s="124"/>
+      <c r="BD2" s="124"/>
+      <c r="BE2" s="124"/>
+      <c r="BF2" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG2" s="124"/>
+      <c r="BH2" s="124"/>
+      <c r="BI2" s="124"/>
+      <c r="BJ2" s="124"/>
+      <c r="BK2" s="124"/>
+      <c r="BL2" s="124"/>
+      <c r="BM2" s="124"/>
+      <c r="BN2" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" s="124"/>
+      <c r="BP2" s="124"/>
+      <c r="BQ2" s="124"/>
+      <c r="BR2" s="124"/>
+      <c r="BS2" s="124"/>
+      <c r="BT2" s="124"/>
+      <c r="BU2" s="124"/>
+      <c r="BV2" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW2" s="124"/>
+      <c r="BX2" s="124"/>
+      <c r="BY2" s="124"/>
+      <c r="BZ2" s="124"/>
+      <c r="CA2" s="124"/>
+      <c r="CB2" s="124"/>
+      <c r="CC2" s="124"/>
+    </row>
+    <row r="3" spans="1:82" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="127">
+        <v>0</v>
+      </c>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127">
+        <v>1</v>
+      </c>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127">
+        <v>2</v>
+      </c>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127">
+        <v>3</v>
+      </c>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127">
+        <v>4</v>
+      </c>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127">
+        <v>5</v>
+      </c>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127">
+        <v>6</v>
+      </c>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127">
+        <v>8</v>
+      </c>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127">
+        <v>9</v>
+      </c>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127">
+        <v>10</v>
+      </c>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="127">
+        <v>13</v>
+      </c>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="127">
+        <v>14</v>
+      </c>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="127">
+        <v>15</v>
+      </c>
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>7</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>8</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>9</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>11</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>13</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>14</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>15</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>4</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>5</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>6</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>7</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>8</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>9</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>10</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>11</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>12</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>13</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>14</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>15</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>4</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>5</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>6</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>7</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>8</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>9</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>10</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>11</v>
+      </c>
+      <c r="BZ3" s="2">
+        <v>12</v>
+      </c>
+      <c r="CA3" s="2">
+        <v>13</v>
+      </c>
+      <c r="CB3" s="2">
+        <v>14</v>
+      </c>
+      <c r="CC3" s="2">
+        <v>15</v>
+      </c>
+      <c r="CD3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="138"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="138" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="138"/>
+      <c r="J4" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="137"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL4" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT4" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY4" s="87"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB4" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="19"/>
+      <c r="BI4" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ4" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK4" s="19"/>
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="40"/>
+      <c r="BQ4" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR4" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV4" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY4" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="BZ4" s="100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="133" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="133"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="133" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="133"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="130" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="132"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC5" s="133"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="130" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="99"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="99"/>
+      <c r="AZ5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="87"/>
+      <c r="BC5" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="84"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="87"/>
+      <c r="BK5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="BQ5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS5" s="87"/>
+      <c r="BT5" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU5" s="19"/>
+      <c r="BV5" s="19"/>
+      <c r="BX5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY5" s="19"/>
+      <c r="BZ5" s="87"/>
+      <c r="CA5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="CB5" s="101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:82" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="128"/>
+      <c r="Y6" s="128"/>
+      <c r="Z6" s="128"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="40"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="99"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="19"/>
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="40"/>
+      <c r="BE6" s="40"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="84"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL6" s="19"/>
+      <c r="BM6" s="40"/>
+      <c r="BP6" s="19"/>
+      <c r="BS6" s="19"/>
+      <c r="BT6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU6" s="40"/>
+      <c r="BV6" s="19"/>
+      <c r="BX6" s="19"/>
+      <c r="BY6" s="19"/>
+      <c r="BZ6" s="19"/>
+      <c r="CA6" s="19"/>
+      <c r="CB6" s="60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:82" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="135"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="135" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="135"/>
+      <c r="J7" s="131" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="131"/>
+      <c r="L7" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="135"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="131" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="139"/>
+      <c r="V7" s="128"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="135" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC7" s="135"/>
+      <c r="AD7" s="132"/>
+      <c r="AE7" s="132"/>
+      <c r="AF7" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL7" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM7" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS7" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT7" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU7" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ7" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA7" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB7" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC7" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF7" s="19"/>
+      <c r="BG7" s="84"/>
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ7" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK7" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL7" s="19"/>
+      <c r="BM7" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="BQ7" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR7" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="BS7" s="19"/>
+      <c r="BT7" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU7" s="19"/>
+      <c r="BV7" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="BX7" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY7" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="BZ7" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="CA7" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="CB7" s="96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:82" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="129"/>
+      <c r="AB8" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC8" s="136"/>
+      <c r="AD8" s="129"/>
+      <c r="AE8" s="129"/>
+      <c r="AF8" s="129"/>
+      <c r="AG8" s="129"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="103" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="40"/>
+      <c r="AS8" s="40"/>
+      <c r="AT8" s="40"/>
+      <c r="AU8" s="40"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="40"/>
+      <c r="AX8" s="40"/>
+      <c r="AY8" s="99"/>
+      <c r="AZ8" s="40"/>
+      <c r="BA8" s="40"/>
+      <c r="BB8" s="40"/>
+      <c r="BC8" s="40"/>
+      <c r="BD8" s="40"/>
+      <c r="BE8" s="40"/>
+      <c r="BF8" s="40"/>
+      <c r="BG8" s="40"/>
+      <c r="BH8" s="40"/>
+      <c r="BI8" s="40"/>
+      <c r="BJ8" s="40"/>
+      <c r="BK8" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL8" s="19"/>
+      <c r="BM8" s="40"/>
+      <c r="BN8" s="99"/>
+      <c r="BT8" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="CB8" s="104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:82" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="121"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="140"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="140"/>
+      <c r="S9" s="122"/>
+      <c r="U9" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="141"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="144"/>
+      <c r="AB9" s="144"/>
+      <c r="AC9" s="128"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="128"/>
+      <c r="AG9" s="146"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="40"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="40"/>
+      <c r="BE9" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF9" s="19"/>
+      <c r="BG9" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19"/>
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="99"/>
+      <c r="BO9" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="BP9" s="19"/>
+      <c r="BR9" s="147"/>
+      <c r="BU9" s="147"/>
+      <c r="BV9" s="99"/>
+      <c r="BW9" s="19"/>
+      <c r="BX9" s="19"/>
+      <c r="BZ9" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA9" s="19"/>
+      <c r="CB9" s="19"/>
+      <c r="CC9" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="CD9" s="19"/>
+    </row>
+    <row r="10" spans="1:82" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="140"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="140"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="140"/>
+      <c r="U10" s="121"/>
+      <c r="W10" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="X10" s="141"/>
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="145"/>
+      <c r="AD10" s="145"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="121"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD10" s="40"/>
+      <c r="BE10" s="19"/>
+      <c r="BF10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG10" s="19"/>
+      <c r="BH10" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI10" s="19"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="19"/>
+      <c r="BL10" s="19"/>
+      <c r="BM10" s="19"/>
+      <c r="BN10" s="19"/>
+      <c r="BO10" s="19"/>
+      <c r="BP10" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="BS10" s="147"/>
+      <c r="BV10" s="147"/>
+      <c r="BW10" s="110"/>
+      <c r="BX10" s="19"/>
+      <c r="BZ10" s="19"/>
+      <c r="CA10" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="CB10" s="19"/>
+      <c r="CC10" s="19"/>
+      <c r="CD10" s="74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:82" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="142">
+        <v>0</v>
+      </c>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142">
+        <v>1</v>
+      </c>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142">
+        <v>2</v>
+      </c>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142">
+        <v>3</v>
+      </c>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142">
+        <v>4</v>
+      </c>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142">
+        <v>5</v>
+      </c>
+      <c r="N11" s="142"/>
+      <c r="O11" s="142">
+        <v>6</v>
+      </c>
+      <c r="P11" s="142"/>
+      <c r="Q11" s="142">
+        <v>7</v>
+      </c>
+      <c r="R11" s="142"/>
+      <c r="S11" s="142">
+        <v>8</v>
+      </c>
+      <c r="T11" s="142"/>
+      <c r="U11" s="142">
+        <v>9</v>
+      </c>
+      <c r="V11" s="142"/>
+      <c r="W11" s="142">
+        <v>10</v>
+      </c>
+      <c r="X11" s="142"/>
+      <c r="Y11" s="142">
+        <v>11</v>
+      </c>
+      <c r="Z11" s="142"/>
+      <c r="AA11" s="142">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="142"/>
+      <c r="AC11" s="142">
+        <v>13</v>
+      </c>
+      <c r="AD11" s="142"/>
+      <c r="AE11" s="142">
+        <v>14</v>
+      </c>
+      <c r="AF11" s="142"/>
+      <c r="AG11" s="143">
+        <v>15</v>
+      </c>
+      <c r="AH11" s="143"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+    </row>
+    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="BB12" s="105"/>
+      <c r="BC12" s="105"/>
+      <c r="BD12" s="99"/>
+      <c r="BE12" s="99"/>
+      <c r="BJ12" s="105"/>
+      <c r="BK12" s="105"/>
+      <c r="BL12" s="99"/>
+      <c r="BM12" s="99"/>
+    </row>
+    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="BJ13" s="106"/>
+      <c r="BK13" s="106"/>
+      <c r="BL13" s="99"/>
+      <c r="BM13" s="99"/>
+      <c r="BR13" s="106"/>
+      <c r="BS13" s="106"/>
+      <c r="BT13" s="99"/>
+      <c r="BU13" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="155">
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="BN1:BU1"/>
+    <mergeCell ref="BV1:CC1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="R2:AF2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="BN2:BU2"/>
+    <mergeCell ref="BV2:CC2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="R1:AF1"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="AP1:AW1"/>
+    <mergeCell ref="AX1:BE1"/>
+    <mergeCell ref="BF1:BM1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AB8:AC8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BO13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="69" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:67" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="125" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="125"/>
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="125"/>
+      <c r="AX1" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY1" s="126"/>
+      <c r="AZ1" s="126"/>
+      <c r="BA1" s="126"/>
+      <c r="BB1" s="126"/>
+      <c r="BC1" s="126"/>
+      <c r="BD1" s="126"/>
+      <c r="BE1" s="126"/>
+      <c r="BF1" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG1" s="125"/>
+      <c r="BH1" s="125"/>
+      <c r="BI1" s="125"/>
+      <c r="BJ1" s="125"/>
+      <c r="BK1" s="125"/>
+      <c r="BL1" s="125"/>
+      <c r="BM1" s="125"/>
+    </row>
+    <row r="2" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="124"/>
+      <c r="AH2" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="124"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="124"/>
+      <c r="AO2" s="124"/>
+      <c r="AP2" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ2" s="124"/>
+      <c r="AR2" s="124"/>
+      <c r="AS2" s="124"/>
+      <c r="AT2" s="124"/>
+      <c r="AU2" s="124"/>
+      <c r="AV2" s="124"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" s="124"/>
+      <c r="AZ2" s="124"/>
+      <c r="BA2" s="124"/>
+      <c r="BB2" s="124"/>
+      <c r="BC2" s="124"/>
+      <c r="BD2" s="124"/>
+      <c r="BE2" s="124"/>
+      <c r="BF2" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG2" s="124"/>
+      <c r="BH2" s="124"/>
+      <c r="BI2" s="124"/>
+      <c r="BJ2" s="124"/>
+      <c r="BK2" s="124"/>
+      <c r="BL2" s="124"/>
+      <c r="BM2" s="124"/>
+    </row>
+    <row r="3" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>4</v>
+      </c>
+      <c r="W3" s="2">
+        <v>5</v>
+      </c>
+      <c r="X3" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>7</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>8</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>9</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>11</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>13</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>14</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>15</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>4</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>5</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>6</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>7</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>8</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>9</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>10</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>11</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>12</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>13</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>14</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>15</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="F4" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="110"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="110"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="110"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="112"/>
+      <c r="AH4" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI4" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ4" s="110"/>
+      <c r="AL4" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN4" s="112"/>
+      <c r="AO4" s="112"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR4" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="112"/>
+      <c r="AW4" s="112"/>
+      <c r="AY4" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ4" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF4" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG4" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ4" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="110"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="110"/>
+      <c r="H5" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="110"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="110"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="110"/>
+      <c r="AF5" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="114"/>
+      <c r="AJ5" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK5" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL5" s="110"/>
+      <c r="AN5" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="114"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT5" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV5" s="110"/>
+      <c r="AZ5" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA5" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC5" s="114"/>
+      <c r="BE5" s="110"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="114"/>
+      <c r="BH5" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI5" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ5" s="110"/>
+      <c r="BL5" s="115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="110"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="110"/>
+      <c r="V6" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="110"/>
+      <c r="AD6" s="110"/>
+      <c r="AF6" s="110"/>
+      <c r="AG6" s="112"/>
+      <c r="AH6" s="110"/>
+      <c r="AI6" s="110"/>
+      <c r="AJ6" s="110"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="110"/>
+      <c r="AN6" s="110"/>
+      <c r="AP6" s="110"/>
+      <c r="AQ6" s="110"/>
+      <c r="AR6" s="110"/>
+      <c r="AS6" s="112"/>
+      <c r="AT6" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV6" s="110"/>
+      <c r="BA6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC6" s="110"/>
+      <c r="BE6" s="112"/>
+      <c r="BF6" s="110"/>
+      <c r="BG6" s="110"/>
+      <c r="BH6" s="110"/>
+      <c r="BI6" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ6" s="110"/>
+      <c r="BL6" s="110"/>
+    </row>
+    <row r="7" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="110"/>
+      <c r="K7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="110"/>
+      <c r="T7" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
+      <c r="Z7" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD7" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF7" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI7" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ7" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK7" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL7" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN7" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP7" s="110"/>
+      <c r="AQ7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR7" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT7" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV7" s="110"/>
+      <c r="AY7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ7" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA7" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC7" s="110"/>
+      <c r="BE7" s="110"/>
+      <c r="BF7" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH7" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ7" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL7" s="111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="112"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="112"/>
+      <c r="AD8" s="112"/>
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="112"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="112"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="112"/>
+      <c r="AM8" s="112"/>
+      <c r="AN8" s="112"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="112"/>
+      <c r="AQ8" s="112"/>
+      <c r="AR8" s="112"/>
+      <c r="AS8" s="112"/>
+      <c r="AT8" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="99"/>
+      <c r="BA8" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI8" s="104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="112"/>
+      <c r="J9" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AH9" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM9" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN9" s="112"/>
+      <c r="AP9" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR9" s="110"/>
+      <c r="AS9" s="110"/>
+      <c r="AT9" s="110"/>
+      <c r="AU9" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV9" s="110"/>
+      <c r="AW9" s="110"/>
+      <c r="AX9" s="99"/>
+      <c r="BG9" s="110"/>
+      <c r="BH9" s="110"/>
+      <c r="BJ9" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK9" s="110"/>
+      <c r="BL9" s="110"/>
+      <c r="BN9" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="BO9" s="110"/>
+    </row>
+    <row r="10" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="110"/>
+      <c r="K10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="110"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ10" s="110"/>
+      <c r="AK10" s="110"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN10" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO10" s="110"/>
+      <c r="AQ10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS10" s="110"/>
+      <c r="AT10" s="110"/>
+      <c r="AU10" s="110"/>
+      <c r="AV10" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW10" s="110"/>
+      <c r="AX10" s="110"/>
+      <c r="BG10" s="110"/>
+      <c r="BH10" s="110"/>
+      <c r="BJ10" s="110"/>
+      <c r="BK10" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL10" s="110"/>
+      <c r="BN10" s="110"/>
+      <c r="BO10" s="74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="AL12" s="105"/>
+      <c r="AM12" s="105"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AT12" s="105"/>
+      <c r="AU12" s="105"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="99"/>
+      <c r="AW13" s="99"/>
+      <c r="BB13" s="106"/>
+      <c r="BC13" s="106"/>
+      <c r="BD13" s="99"/>
+      <c r="BE13" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="AX1:BE1"/>
+    <mergeCell ref="BF1:BM1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="AP1:AW1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BQ28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AH17" sqref="AH17:AO17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="69" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:67" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="125" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="125"/>
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="125"/>
+      <c r="AX1" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY1" s="126"/>
+      <c r="AZ1" s="126"/>
+      <c r="BA1" s="126"/>
+      <c r="BB1" s="126"/>
+      <c r="BC1" s="126"/>
+      <c r="BD1" s="126"/>
+      <c r="BE1" s="126"/>
+      <c r="BF1" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG1" s="125"/>
+      <c r="BH1" s="125"/>
+      <c r="BI1" s="125"/>
+      <c r="BJ1" s="125"/>
+      <c r="BK1" s="125"/>
+      <c r="BL1" s="125"/>
+      <c r="BM1" s="125"/>
+    </row>
+    <row r="2" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="124"/>
+      <c r="AH2" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="124"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="124"/>
+      <c r="AO2" s="124"/>
+      <c r="AP2" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ2" s="124"/>
+      <c r="AR2" s="124"/>
+      <c r="AS2" s="124"/>
+      <c r="AT2" s="124"/>
+      <c r="AU2" s="124"/>
+      <c r="AV2" s="124"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" s="124"/>
+      <c r="AZ2" s="124"/>
+      <c r="BA2" s="124"/>
+      <c r="BB2" s="124"/>
+      <c r="BC2" s="124"/>
+      <c r="BD2" s="124"/>
+      <c r="BE2" s="124"/>
+      <c r="BF2" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG2" s="124"/>
+      <c r="BH2" s="124"/>
+      <c r="BI2" s="124"/>
+      <c r="BJ2" s="124"/>
+      <c r="BK2" s="124"/>
+      <c r="BL2" s="124"/>
+      <c r="BM2" s="124"/>
+    </row>
+    <row r="3" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>4</v>
+      </c>
+      <c r="W3" s="2">
+        <v>5</v>
+      </c>
+      <c r="X3" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>7</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>8</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>9</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>11</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>13</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>14</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>15</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>4</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>5</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>6</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>7</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>8</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>9</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>10</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>11</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>12</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>13</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>14</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>15</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="113"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="110"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="110"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="110"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="112"/>
+      <c r="AH4" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL4" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="112"/>
+      <c r="AO4" s="112"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="114"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT4" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="112"/>
+      <c r="AW4" s="112"/>
+      <c r="AY4" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA4" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF4" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG4" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI4" s="109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="110"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="110"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="110"/>
+      <c r="I5" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="110"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="110"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="99"/>
+      <c r="AJ5" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="114"/>
+      <c r="AM5" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="114"/>
+      <c r="AU5" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA5" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB5" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC5" s="114"/>
+      <c r="BE5" s="110"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="114"/>
+      <c r="BH5" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI5" s="110"/>
+      <c r="BJ5" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK5" s="115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="110"/>
+      <c r="V6" s="110"/>
+      <c r="W6" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="110"/>
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="110"/>
+      <c r="AF6" s="110"/>
+      <c r="AG6" s="112"/>
+      <c r="AH6" s="110"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="110"/>
+      <c r="AK6" s="110"/>
+      <c r="AL6" s="110"/>
+      <c r="AM6" s="110"/>
+      <c r="AN6" s="112"/>
+      <c r="AO6" s="112"/>
+      <c r="AP6" s="110"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="110"/>
+      <c r="AS6" s="110"/>
+      <c r="AT6" s="110"/>
+      <c r="AU6" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV6" s="110"/>
+      <c r="AW6" s="112"/>
+      <c r="AZ6" s="110"/>
+      <c r="BB6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC6" s="110"/>
+      <c r="BE6" s="112"/>
+      <c r="BF6" s="110"/>
+      <c r="BG6" s="110"/>
+      <c r="BH6" s="110"/>
+      <c r="BI6" s="110"/>
+      <c r="BJ6" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK6" s="110"/>
+    </row>
+    <row r="7" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="113"/>
+      <c r="D7" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="110"/>
+      <c r="I7" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="110"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
+      <c r="Z7" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ7" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK7" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL7" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM7" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN7" s="110"/>
+      <c r="AO7" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP7" s="110"/>
+      <c r="AQ7" s="113"/>
+      <c r="AR7" s="110"/>
+      <c r="AS7" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU7" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV7" s="110"/>
+      <c r="AW7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA7" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB7" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC7" s="110"/>
+      <c r="BE7" s="110"/>
+      <c r="BF7" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH7" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI7" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ7" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK7" s="111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="112"/>
+      <c r="AD8" s="112"/>
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="112"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="112"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="112"/>
+      <c r="AM8" s="112"/>
+      <c r="AN8" s="112"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="112"/>
+      <c r="AQ8" s="112"/>
+      <c r="AR8" s="112"/>
+      <c r="AS8" s="112"/>
+      <c r="AT8" s="112"/>
+      <c r="AU8" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="99"/>
+      <c r="BB8" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ8" s="104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="G9" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="110"/>
+      <c r="J9" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="97"/>
+      <c r="L9" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="T9" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AE9" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="110"/>
+      <c r="AM9" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN9" s="110"/>
+      <c r="AO9" s="112"/>
+      <c r="AP9" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ9" s="110"/>
+      <c r="AR9" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS9" s="110"/>
+      <c r="AT9" s="110"/>
+      <c r="AU9" s="110"/>
+      <c r="AV9" s="110"/>
+      <c r="AW9" s="110"/>
+      <c r="AX9" s="110"/>
+      <c r="AY9" s="99"/>
+      <c r="AZ9" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA9" s="110"/>
+      <c r="BH9" s="110"/>
+      <c r="BI9" s="110"/>
+      <c r="BK9" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL9" s="110"/>
+      <c r="BM9" s="110"/>
+      <c r="BN9" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="BO9" s="110"/>
+    </row>
+    <row r="10" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="110"/>
+      <c r="K10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="110"/>
+      <c r="M10" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="110"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="110"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ10" s="110"/>
+      <c r="AK10" s="110"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="110"/>
+      <c r="AN10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO10" s="112"/>
+      <c r="AP10" s="110"/>
+      <c r="AQ10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR10" s="110"/>
+      <c r="AS10" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT10" s="110"/>
+      <c r="AU10" s="110"/>
+      <c r="AV10" s="110"/>
+      <c r="AW10" s="110"/>
+      <c r="AX10" s="110"/>
+      <c r="AY10" s="110"/>
+      <c r="AZ10" s="110"/>
+      <c r="BA10" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH10" s="110"/>
+      <c r="BI10" s="110"/>
+      <c r="BK10" s="110"/>
+      <c r="BL10" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM10" s="110"/>
+      <c r="BN10" s="110"/>
+      <c r="BO10" s="74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="AL12" s="105"/>
+      <c r="AM12" s="105"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AT12" s="105"/>
+      <c r="AU12" s="105"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="99"/>
+      <c r="AW13" s="99"/>
+      <c r="BB13" s="106"/>
+      <c r="BC13" s="106"/>
+      <c r="BD13" s="99"/>
+      <c r="BE13" s="99"/>
+    </row>
+    <row r="16" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="125" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="125"/>
+      <c r="AC16" s="125"/>
+      <c r="AD16" s="125"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="125"/>
+      <c r="AH16" s="125" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI16" s="125"/>
+      <c r="AJ16" s="125"/>
+      <c r="AK16" s="125"/>
+      <c r="AL16" s="125"/>
+      <c r="AM16" s="125"/>
+      <c r="AN16" s="125"/>
+      <c r="AO16" s="125"/>
+      <c r="AP16" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ16" s="125"/>
+      <c r="AR16" s="125"/>
+      <c r="AS16" s="125"/>
+      <c r="AT16" s="125"/>
+      <c r="AU16" s="125"/>
+      <c r="AV16" s="125"/>
+      <c r="AW16" s="125"/>
+      <c r="AX16" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY16" s="126"/>
+      <c r="AZ16" s="126"/>
+      <c r="BA16" s="126"/>
+      <c r="BB16" s="126"/>
+      <c r="BC16" s="126"/>
+      <c r="BD16" s="126"/>
+      <c r="BE16" s="126"/>
+      <c r="BF16" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG16" s="125"/>
+      <c r="BH16" s="125"/>
+      <c r="BI16" s="125"/>
+      <c r="BJ16" s="125"/>
+      <c r="BK16" s="125"/>
+      <c r="BL16" s="125"/>
+      <c r="BM16" s="125"/>
+    </row>
+    <row r="17" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="150"/>
+      <c r="AH17" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI17" s="149"/>
+      <c r="AJ17" s="149"/>
+      <c r="AK17" s="149"/>
+      <c r="AL17" s="149"/>
+      <c r="AM17" s="149"/>
+      <c r="AN17" s="149"/>
+      <c r="AO17" s="150"/>
+      <c r="AP17" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ17" s="124"/>
+      <c r="AR17" s="124"/>
+      <c r="AS17" s="124"/>
+      <c r="AT17" s="124"/>
+      <c r="AU17" s="124"/>
+      <c r="AV17" s="124"/>
+      <c r="AW17" s="124"/>
+      <c r="AX17" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY17" s="124"/>
+      <c r="AZ17" s="124"/>
+      <c r="BA17" s="124"/>
+      <c r="BB17" s="124"/>
+      <c r="BC17" s="124"/>
+      <c r="BD17" s="124"/>
+      <c r="BE17" s="124"/>
+      <c r="BF17" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG17" s="124"/>
+      <c r="BH17" s="124"/>
+      <c r="BI17" s="124"/>
+      <c r="BJ17" s="124"/>
+      <c r="BK17" s="124"/>
+      <c r="BL17" s="124"/>
+      <c r="BM17" s="124"/>
+    </row>
+    <row r="18" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2">
+        <v>9</v>
+      </c>
+      <c r="L18" s="2">
+        <v>10</v>
+      </c>
+      <c r="M18" s="2">
+        <v>11</v>
+      </c>
+      <c r="N18" s="2">
+        <v>12</v>
+      </c>
+      <c r="O18" s="2">
+        <v>13</v>
+      </c>
+      <c r="P18" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>15</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
+        <v>2</v>
+      </c>
+      <c r="U18" s="2">
+        <v>3</v>
+      </c>
+      <c r="V18" s="2">
+        <v>4</v>
+      </c>
+      <c r="W18" s="2">
+        <v>5</v>
+      </c>
+      <c r="X18" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>14</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>7</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>8</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>9</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>11</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>12</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>13</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>14</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>3</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>4</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>5</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>6</v>
+      </c>
+      <c r="BE18" s="2">
+        <v>7</v>
+      </c>
+      <c r="BF18" s="2">
+        <v>8</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>9</v>
+      </c>
+      <c r="BH18" s="2">
+        <v>10</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>11</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>12</v>
+      </c>
+      <c r="BK18" s="2">
+        <v>13</v>
+      </c>
+      <c r="BL18" s="2">
+        <v>14</v>
+      </c>
+      <c r="BM18" s="2">
+        <v>15</v>
+      </c>
+      <c r="BN18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP18" s="2">
+        <v>2</v>
+      </c>
+      <c r="BQ18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="110"/>
+      <c r="E19" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="110"/>
+      <c r="M19" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="T19" s="110"/>
+      <c r="U19" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="V19" s="110"/>
+      <c r="W19" s="110"/>
+      <c r="X19" s="112"/>
+      <c r="Y19" s="112"/>
+      <c r="Z19" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA19" s="114"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD19" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI19" s="114"/>
+      <c r="AJ19" s="110"/>
+      <c r="AK19" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL19" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM19" s="110"/>
+      <c r="AN19" s="112"/>
+      <c r="AO19" s="112"/>
+      <c r="AP19" s="110"/>
+      <c r="AQ19" s="114"/>
+      <c r="AR19" s="110"/>
+      <c r="AS19" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT19" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU19" s="110"/>
+      <c r="AV19" s="112"/>
+      <c r="AW19" s="112"/>
+      <c r="AY19" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA19" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF19" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG19" s="110"/>
+      <c r="BI19" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ19" s="116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="110"/>
+      <c r="D20" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="110"/>
+      <c r="F20" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="W20" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="110"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC20" s="110"/>
+      <c r="AD20" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE20" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF20" s="110"/>
+      <c r="AG20" s="110"/>
+      <c r="AH20" s="110"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK20" s="110"/>
+      <c r="AL20" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM20" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN20" s="110"/>
+      <c r="AO20" s="110"/>
+      <c r="AP20" s="110"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="110"/>
+      <c r="AS20" s="110"/>
+      <c r="AT20" s="114"/>
+      <c r="AU20" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV20" s="110"/>
+      <c r="AW20" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA20" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB20" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC20" s="114"/>
+      <c r="BE20" s="110"/>
+      <c r="BF20" s="110"/>
+      <c r="BG20" s="114"/>
+      <c r="BH20" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI20" s="110"/>
+      <c r="BJ20" s="114"/>
+      <c r="BK20" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="BM20" s="118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="110"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="110"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="112"/>
+      <c r="AH21" s="110"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="110"/>
+      <c r="AK21" s="110"/>
+      <c r="AL21" s="110"/>
+      <c r="AM21" s="110"/>
+      <c r="AN21" s="112"/>
+      <c r="AO21" s="112"/>
+      <c r="AP21" s="110"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="110"/>
+      <c r="AS21" s="110"/>
+      <c r="AT21" s="110"/>
+      <c r="AU21" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV21" s="110"/>
+      <c r="AW21" s="112"/>
+      <c r="AZ21" s="110"/>
+      <c r="BB21" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC21" s="110"/>
+      <c r="BE21" s="112"/>
+      <c r="BF21" s="110"/>
+      <c r="BG21" s="110"/>
+      <c r="BH21" s="110"/>
+      <c r="BI21" s="110"/>
+      <c r="BJ21" s="110"/>
+      <c r="BK21" s="110"/>
+      <c r="BM21" s="112"/>
+    </row>
+    <row r="22" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="110"/>
+      <c r="M22" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="110"/>
+      <c r="U22" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="V22" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="W22" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="X22" s="110"/>
+      <c r="Y22" s="110"/>
+      <c r="Z22" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC22" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD22" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE22" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF22" s="110"/>
+      <c r="AG22" s="110"/>
+      <c r="AH22" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ22" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK22" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL22" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM22" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN22" s="110"/>
+      <c r="AO22" s="110"/>
+      <c r="AP22" s="110"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="110"/>
+      <c r="AS22" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT22" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU22" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV22" s="110"/>
+      <c r="AW22" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY22" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA22" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB22" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC22" s="110"/>
+      <c r="BE22" s="110"/>
+      <c r="BF22" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG22" s="110"/>
+      <c r="BH22" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI22" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ22" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK22" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="BM22" s="117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="W23" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="112"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="112"/>
+      <c r="AD23" s="112"/>
+      <c r="AE23" s="112"/>
+      <c r="AF23" s="110"/>
+      <c r="AG23" s="112"/>
+      <c r="AH23" s="112"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="112"/>
+      <c r="AK23" s="112"/>
+      <c r="AL23" s="112"/>
+      <c r="AM23" s="112"/>
+      <c r="AN23" s="112"/>
+      <c r="AO23" s="112"/>
+      <c r="AP23" s="112"/>
+      <c r="AQ23" s="112"/>
+      <c r="AR23" s="112"/>
+      <c r="AS23" s="112"/>
+      <c r="AT23" s="112"/>
+      <c r="AU23" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV23" s="110"/>
+      <c r="AW23" s="112"/>
+      <c r="AX23" s="99"/>
+      <c r="BB23" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ23" s="110"/>
+    </row>
+    <row r="24" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="G24" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="110"/>
+      <c r="J24" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="97"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="112"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="110"/>
+      <c r="AB24" s="110"/>
+      <c r="AC24" s="110"/>
+      <c r="AE24" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF24" s="110"/>
+      <c r="AG24" s="110"/>
+      <c r="AH24" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI24" s="110"/>
+      <c r="AJ24" s="110"/>
+      <c r="AK24" s="110"/>
+      <c r="AL24" s="110"/>
+      <c r="AM24" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN24" s="110"/>
+      <c r="AO24" s="112"/>
+      <c r="AP24" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ24" s="110"/>
+      <c r="AR24" s="110"/>
+      <c r="AS24" s="110"/>
+      <c r="AT24" s="110"/>
+      <c r="AU24" s="110"/>
+      <c r="AV24" s="110"/>
+      <c r="AW24" s="110"/>
+      <c r="AX24" s="110"/>
+      <c r="AY24" s="99"/>
+      <c r="AZ24" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA24" s="110"/>
+      <c r="BH24" s="110"/>
+      <c r="BI24" s="110"/>
+      <c r="BK24" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL24" s="110"/>
+      <c r="BM24" s="110"/>
+      <c r="BN24" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="BO24" s="110"/>
+      <c r="BP24" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="BQ24" s="110"/>
+    </row>
+    <row r="25" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="110"/>
+      <c r="K25" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="110"/>
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="110"/>
+      <c r="AE25" s="110"/>
+      <c r="AF25" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG25" s="110"/>
+      <c r="AH25" s="110"/>
+      <c r="AI25" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ25" s="110"/>
+      <c r="AK25" s="110"/>
+      <c r="AL25" s="110"/>
+      <c r="AM25" s="110"/>
+      <c r="AN25" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO25" s="112"/>
+      <c r="AP25" s="110"/>
+      <c r="AQ25" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR25" s="110"/>
+      <c r="AS25" s="110"/>
+      <c r="AT25" s="110"/>
+      <c r="AU25" s="110"/>
+      <c r="AV25" s="110"/>
+      <c r="AW25" s="110"/>
+      <c r="AX25" s="110"/>
+      <c r="AY25" s="110"/>
+      <c r="AZ25" s="110"/>
+      <c r="BA25" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH25" s="110"/>
+      <c r="BI25" s="110"/>
+      <c r="BK25" s="110"/>
+      <c r="BL25" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM25" s="110"/>
+      <c r="BN25" s="110"/>
+      <c r="BO25" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="BP25" s="110"/>
+      <c r="BQ25" s="94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="110"/>
+      <c r="Y26" s="110"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="110"/>
+      <c r="AF26" s="110"/>
+      <c r="AG26" s="110"/>
+    </row>
+    <row r="27" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL27" s="105"/>
+      <c r="AM27" s="105"/>
+      <c r="AN27" s="99"/>
+      <c r="AO27" s="99"/>
+      <c r="AT27" s="105"/>
+      <c r="AU27" s="105"/>
+      <c r="AV27" s="99"/>
+      <c r="AW27" s="99"/>
+    </row>
+    <row r="28" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AT28" s="106"/>
+      <c r="AU28" s="106"/>
+      <c r="AV28" s="99"/>
+      <c r="AW28" s="99"/>
+      <c r="BB28" s="106"/>
+      <c r="BC28" s="106"/>
+      <c r="BD28" s="99"/>
+      <c r="BE28" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="AX16:BE16"/>
+    <mergeCell ref="BF16:BM16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:Y17"/>
+    <mergeCell ref="Z17:AG17"/>
+    <mergeCell ref="AH17:AO17"/>
+    <mergeCell ref="AP17:AW17"/>
+    <mergeCell ref="AX17:BE17"/>
+    <mergeCell ref="BF17:BM17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="AH16:AO16"/>
+    <mergeCell ref="AP16:AW16"/>
+    <mergeCell ref="AX1:BE1"/>
+    <mergeCell ref="BF1:BM1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="AP1:AW1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sdr2.xlsx
+++ b/sdr2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="37">
   <si>
     <t>RAS</t>
   </si>
@@ -496,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -776,21 +776,6 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,6 +787,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,28 +855,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1167,40 +1194,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
     </row>
     <row r="2" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -1597,40 +1624,40 @@
     </row>
     <row r="9" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="123"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="123"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="123"/>
-      <c r="AD10" s="123"/>
-      <c r="AE10" s="123"/>
-      <c r="AF10" s="123"/>
-      <c r="AG10" s="123"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="137"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="137"/>
     </row>
     <row r="11" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
@@ -2055,40 +2082,40 @@
       <c r="AL18" s="18"/>
     </row>
     <row r="19" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="123"/>
-      <c r="U19" s="123"/>
-      <c r="V19" s="123"/>
-      <c r="W19" s="123"/>
-      <c r="X19" s="123"/>
-      <c r="Y19" s="123"/>
-      <c r="Z19" s="123"/>
-      <c r="AA19" s="123"/>
-      <c r="AB19" s="123"/>
-      <c r="AC19" s="123"/>
-      <c r="AD19" s="123"/>
-      <c r="AE19" s="123"/>
-      <c r="AF19" s="123"/>
-      <c r="AG19" s="123"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="137"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="137"/>
       <c r="AH19" s="18"/>
     </row>
     <row r="20" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2511,40 +2538,40 @@
     </row>
     <row r="28" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="123"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="123"/>
-      <c r="W28" s="123"/>
-      <c r="X28" s="123"/>
-      <c r="Y28" s="123"/>
-      <c r="Z28" s="123"/>
-      <c r="AA28" s="123"/>
-      <c r="AB28" s="123"/>
-      <c r="AC28" s="123"/>
-      <c r="AD28" s="123"/>
-      <c r="AE28" s="123"/>
-      <c r="AF28" s="123"/>
-      <c r="AG28" s="123"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="137"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="137"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="137"/>
     </row>
     <row r="29" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
@@ -2928,40 +2955,40 @@
     <row r="36" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="123"/>
-      <c r="U37" s="123"/>
-      <c r="V37" s="123"/>
-      <c r="W37" s="123"/>
-      <c r="X37" s="123"/>
-      <c r="Y37" s="123"/>
-      <c r="Z37" s="123"/>
-      <c r="AA37" s="123"/>
-      <c r="AB37" s="123"/>
-      <c r="AC37" s="123"/>
-      <c r="AD37" s="123"/>
-      <c r="AE37" s="123"/>
-      <c r="AF37" s="123"/>
-      <c r="AG37" s="123"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="137"/>
+      <c r="L37" s="137"/>
+      <c r="M37" s="137"/>
+      <c r="N37" s="137"/>
+      <c r="O37" s="137"/>
+      <c r="P37" s="137"/>
+      <c r="Q37" s="137"/>
+      <c r="R37" s="137"/>
+      <c r="S37" s="137"/>
+      <c r="T37" s="137"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="137"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="137"/>
+      <c r="Y37" s="137"/>
+      <c r="Z37" s="137"/>
+      <c r="AA37" s="137"/>
+      <c r="AB37" s="137"/>
+      <c r="AC37" s="137"/>
+      <c r="AD37" s="137"/>
+      <c r="AE37" s="137"/>
+      <c r="AF37" s="137"/>
+      <c r="AG37" s="137"/>
     </row>
     <row r="38" spans="1:38" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
@@ -3363,40 +3390,40 @@
   <sheetData>
     <row r="1" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
     </row>
     <row r="2" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -3746,40 +3773,40 @@
     </row>
     <row r="9" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="123"/>
-      <c r="U9" s="123"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="123"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="123"/>
-      <c r="AD9" s="123"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="123"/>
-      <c r="AG9" s="123"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="137"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="137"/>
+      <c r="AF9" s="137"/>
+      <c r="AG9" s="137"/>
     </row>
     <row r="10" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
@@ -4086,40 +4113,40 @@
     <row r="16" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="123"/>
-      <c r="W17" s="123"/>
-      <c r="X17" s="123"/>
-      <c r="Y17" s="123"/>
-      <c r="Z17" s="123"/>
-      <c r="AA17" s="123"/>
-      <c r="AB17" s="123"/>
-      <c r="AC17" s="123"/>
-      <c r="AD17" s="123"/>
-      <c r="AE17" s="123"/>
-      <c r="AF17" s="123"/>
-      <c r="AG17" s="123"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="137"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="137"/>
     </row>
     <row r="18" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
@@ -4532,8 +4559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN13"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AU16" sqref="AU16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4543,168 +4570,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125" t="s">
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125" t="s">
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125" t="s">
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="125"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="125" t="s">
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="139"/>
+      <c r="AG1" s="139"/>
+      <c r="AH1" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="125"/>
-      <c r="AK1" s="125"/>
-      <c r="AL1" s="125"/>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="125" t="s">
+      <c r="AI1" s="139"/>
+      <c r="AJ1" s="139"/>
+      <c r="AK1" s="139"/>
+      <c r="AL1" s="139"/>
+      <c r="AM1" s="139"/>
+      <c r="AN1" s="139"/>
+      <c r="AO1" s="139"/>
+      <c r="AP1" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="125"/>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="125"/>
-      <c r="AT1" s="125"/>
-      <c r="AU1" s="125"/>
-      <c r="AV1" s="125"/>
-      <c r="AW1" s="125"/>
-      <c r="AX1" s="126" t="s">
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="139"/>
+      <c r="AT1" s="139"/>
+      <c r="AU1" s="139"/>
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="139"/>
+      <c r="AX1" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="126"/>
-      <c r="AZ1" s="126"/>
-      <c r="BA1" s="126"/>
-      <c r="BB1" s="126"/>
-      <c r="BC1" s="126"/>
-      <c r="BD1" s="126"/>
-      <c r="BE1" s="126"/>
-      <c r="BF1" s="125" t="s">
+      <c r="AY1" s="140"/>
+      <c r="AZ1" s="140"/>
+      <c r="BA1" s="140"/>
+      <c r="BB1" s="140"/>
+      <c r="BC1" s="140"/>
+      <c r="BD1" s="140"/>
+      <c r="BE1" s="140"/>
+      <c r="BF1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="BG1" s="125"/>
-      <c r="BH1" s="125"/>
-      <c r="BI1" s="125"/>
-      <c r="BJ1" s="125"/>
-      <c r="BK1" s="125"/>
-      <c r="BL1" s="125"/>
-      <c r="BM1" s="125"/>
+      <c r="BG1" s="139"/>
+      <c r="BH1" s="139"/>
+      <c r="BI1" s="139"/>
+      <c r="BJ1" s="139"/>
+      <c r="BK1" s="139"/>
+      <c r="BL1" s="139"/>
+      <c r="BM1" s="139"/>
     </row>
     <row r="2" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124" t="s">
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124" t="s">
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124" t="s">
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124" t="s">
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="124"/>
-      <c r="AM2" s="124"/>
-      <c r="AN2" s="124"/>
-      <c r="AO2" s="124"/>
-      <c r="AP2" s="124" t="s">
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="AQ2" s="124"/>
-      <c r="AR2" s="124"/>
-      <c r="AS2" s="124"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="124"/>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="124" t="s">
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="AY2" s="124"/>
-      <c r="AZ2" s="124"/>
-      <c r="BA2" s="124"/>
-      <c r="BB2" s="124"/>
-      <c r="BC2" s="124"/>
-      <c r="BD2" s="124"/>
-      <c r="BE2" s="124"/>
-      <c r="BF2" s="124" t="s">
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="BG2" s="124"/>
-      <c r="BH2" s="124"/>
-      <c r="BI2" s="124"/>
-      <c r="BJ2" s="124"/>
-      <c r="BK2" s="124"/>
-      <c r="BL2" s="124"/>
-      <c r="BM2" s="124"/>
+      <c r="BG2" s="138"/>
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="138"/>
+      <c r="BK2" s="138"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
     </row>
     <row r="3" spans="1:66" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -4713,7 +4740,7 @@
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="134">
         <v>1</v>
       </c>
       <c r="D3" s="2">
@@ -4722,22 +4749,22 @@
       <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="134">
         <v>4</v>
       </c>
       <c r="G3" s="2">
         <v>5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="134">
         <v>6</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="134">
         <v>7</v>
       </c>
       <c r="J3" s="2">
         <v>8</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="134">
         <v>9</v>
       </c>
       <c r="L3" s="2">
@@ -4746,16 +4773,16 @@
       <c r="M3" s="2">
         <v>11</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="134">
         <v>12</v>
       </c>
       <c r="O3" s="2">
         <v>13</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="134">
         <v>14</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="134">
         <v>15</v>
       </c>
       <c r="R3" s="2">
@@ -4913,29 +4940,29 @@
       <c r="B4" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="84"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="19"/>
       <c r="E4" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="128" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="19"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="87"/>
+      <c r="K4" s="135"/>
       <c r="L4" s="19"/>
       <c r="M4" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="128" t="s">
         <v>21</v>
       </c>
       <c r="O4" s="19"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
       <c r="R4" s="19"/>
       <c r="S4" s="87"/>
       <c r="T4" s="19"/>
@@ -5009,29 +5036,29 @@
         <v>1</v>
       </c>
       <c r="B5" s="19"/>
-      <c r="C5" s="84"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="19"/>
-      <c r="F5" s="87"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="101" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="125" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="19"/>
-      <c r="K5" s="87"/>
+      <c r="K5" s="135"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
-      <c r="N5" s="87"/>
+      <c r="N5" s="135"/>
       <c r="O5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="101" t="s">
+      <c r="P5" s="135"/>
+      <c r="Q5" s="125" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="19"/>
@@ -5112,23 +5139,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="87"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="87"/>
+      <c r="K6" s="135"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="N6" s="52"/>
       <c r="O6" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="40"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="63"/>
       <c r="R6" s="19"/>
       <c r="S6" s="99"/>
       <c r="T6" s="19"/>
@@ -5187,37 +5214,37 @@
       <c r="B7" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="95" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="126" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="96" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="126" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="19"/>
-      <c r="K7" s="84"/>
+      <c r="K7" s="135"/>
       <c r="L7" s="19"/>
       <c r="M7" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="126" t="s">
         <v>21</v>
       </c>
       <c r="O7" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="96" t="s">
+      <c r="P7" s="135"/>
+      <c r="Q7" s="126" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="19"/>
@@ -5321,23 +5348,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="K8" s="63"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
+      <c r="N8" s="63"/>
       <c r="O8" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="40"/>
       <c r="S8" s="99"/>
       <c r="T8" s="40"/>
@@ -5651,269 +5678,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
       <c r="Q1" s="108"/>
-      <c r="R1" s="125" t="s">
+      <c r="R1" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="125"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="139"/>
       <c r="AG1" s="108"/>
-      <c r="AH1" s="125" t="s">
+      <c r="AH1" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="125"/>
-      <c r="AK1" s="125"/>
-      <c r="AL1" s="125"/>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="125" t="s">
+      <c r="AI1" s="139"/>
+      <c r="AJ1" s="139"/>
+      <c r="AK1" s="139"/>
+      <c r="AL1" s="139"/>
+      <c r="AM1" s="139"/>
+      <c r="AN1" s="139"/>
+      <c r="AO1" s="139"/>
+      <c r="AP1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="AQ1" s="125"/>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="125"/>
-      <c r="AT1" s="125"/>
-      <c r="AU1" s="125"/>
-      <c r="AV1" s="125"/>
-      <c r="AW1" s="125"/>
-      <c r="AX1" s="125" t="s">
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="139"/>
+      <c r="AT1" s="139"/>
+      <c r="AU1" s="139"/>
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="139"/>
+      <c r="AX1" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="AY1" s="125"/>
-      <c r="AZ1" s="125"/>
-      <c r="BA1" s="125"/>
-      <c r="BB1" s="125"/>
-      <c r="BC1" s="125"/>
-      <c r="BD1" s="125"/>
-      <c r="BE1" s="125"/>
-      <c r="BF1" s="125" t="s">
+      <c r="AY1" s="139"/>
+      <c r="AZ1" s="139"/>
+      <c r="BA1" s="139"/>
+      <c r="BB1" s="139"/>
+      <c r="BC1" s="139"/>
+      <c r="BD1" s="139"/>
+      <c r="BE1" s="139"/>
+      <c r="BF1" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="BG1" s="125"/>
-      <c r="BH1" s="125"/>
-      <c r="BI1" s="125"/>
-      <c r="BJ1" s="125"/>
-      <c r="BK1" s="125"/>
-      <c r="BL1" s="125"/>
-      <c r="BM1" s="125"/>
-      <c r="BN1" s="126" t="s">
+      <c r="BG1" s="139"/>
+      <c r="BH1" s="139"/>
+      <c r="BI1" s="139"/>
+      <c r="BJ1" s="139"/>
+      <c r="BK1" s="139"/>
+      <c r="BL1" s="139"/>
+      <c r="BM1" s="139"/>
+      <c r="BN1" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="BO1" s="126"/>
-      <c r="BP1" s="126"/>
-      <c r="BQ1" s="126"/>
-      <c r="BR1" s="126"/>
-      <c r="BS1" s="126"/>
-      <c r="BT1" s="126"/>
-      <c r="BU1" s="126"/>
-      <c r="BV1" s="125" t="s">
+      <c r="BO1" s="140"/>
+      <c r="BP1" s="140"/>
+      <c r="BQ1" s="140"/>
+      <c r="BR1" s="140"/>
+      <c r="BS1" s="140"/>
+      <c r="BT1" s="140"/>
+      <c r="BU1" s="140"/>
+      <c r="BV1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="BW1" s="125"/>
-      <c r="BX1" s="125"/>
-      <c r="BY1" s="125"/>
-      <c r="BZ1" s="125"/>
-      <c r="CA1" s="125"/>
-      <c r="CB1" s="125"/>
-      <c r="CC1" s="125"/>
+      <c r="BW1" s="139"/>
+      <c r="BX1" s="139"/>
+      <c r="BY1" s="139"/>
+      <c r="BZ1" s="139"/>
+      <c r="CA1" s="139"/>
+      <c r="CB1" s="139"/>
+      <c r="CC1" s="139"/>
     </row>
     <row r="2" spans="1:82" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
       <c r="Q2" s="107"/>
-      <c r="R2" s="124" t="s">
+      <c r="R2" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
       <c r="AG2" s="107"/>
-      <c r="AH2" s="124" t="s">
+      <c r="AH2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="124"/>
-      <c r="AM2" s="124"/>
-      <c r="AN2" s="124"/>
-      <c r="AO2" s="124"/>
-      <c r="AP2" s="124" t="s">
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AQ2" s="124"/>
-      <c r="AR2" s="124"/>
-      <c r="AS2" s="124"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="124"/>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="124" t="s">
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="AY2" s="124"/>
-      <c r="AZ2" s="124"/>
-      <c r="BA2" s="124"/>
-      <c r="BB2" s="124"/>
-      <c r="BC2" s="124"/>
-      <c r="BD2" s="124"/>
-      <c r="BE2" s="124"/>
-      <c r="BF2" s="124" t="s">
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="BG2" s="124"/>
-      <c r="BH2" s="124"/>
-      <c r="BI2" s="124"/>
-      <c r="BJ2" s="124"/>
-      <c r="BK2" s="124"/>
-      <c r="BL2" s="124"/>
-      <c r="BM2" s="124"/>
-      <c r="BN2" s="124" t="s">
+      <c r="BG2" s="138"/>
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="138"/>
+      <c r="BK2" s="138"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="BO2" s="124"/>
-      <c r="BP2" s="124"/>
-      <c r="BQ2" s="124"/>
-      <c r="BR2" s="124"/>
-      <c r="BS2" s="124"/>
-      <c r="BT2" s="124"/>
-      <c r="BU2" s="124"/>
-      <c r="BV2" s="124" t="s">
+      <c r="BO2" s="138"/>
+      <c r="BP2" s="138"/>
+      <c r="BQ2" s="138"/>
+      <c r="BR2" s="138"/>
+      <c r="BS2" s="138"/>
+      <c r="BT2" s="138"/>
+      <c r="BU2" s="138"/>
+      <c r="BV2" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="BW2" s="124"/>
-      <c r="BX2" s="124"/>
-      <c r="BY2" s="124"/>
-      <c r="BZ2" s="124"/>
-      <c r="CA2" s="124"/>
-      <c r="CB2" s="124"/>
-      <c r="CC2" s="124"/>
+      <c r="BW2" s="138"/>
+      <c r="BX2" s="138"/>
+      <c r="BY2" s="138"/>
+      <c r="BZ2" s="138"/>
+      <c r="CA2" s="138"/>
+      <c r="CB2" s="138"/>
+      <c r="CC2" s="138"/>
     </row>
     <row r="3" spans="1:82" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="127">
+      <c r="B3" s="141">
         <v>0</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127">
+      <c r="C3" s="141"/>
+      <c r="D3" s="141">
         <v>1</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127">
+      <c r="E3" s="141"/>
+      <c r="F3" s="141">
         <v>2</v>
       </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127">
+      <c r="G3" s="141"/>
+      <c r="H3" s="141">
         <v>3</v>
       </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127">
+      <c r="I3" s="141"/>
+      <c r="J3" s="141">
         <v>4</v>
       </c>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127">
+      <c r="K3" s="141"/>
+      <c r="L3" s="141">
         <v>5</v>
       </c>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127">
+      <c r="M3" s="141"/>
+      <c r="N3" s="141">
         <v>6</v>
       </c>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127">
+      <c r="O3" s="141"/>
+      <c r="P3" s="141">
         <v>7</v>
       </c>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127">
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141">
         <v>8</v>
       </c>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127">
+      <c r="S3" s="141"/>
+      <c r="T3" s="141">
         <v>9</v>
       </c>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127">
+      <c r="U3" s="141"/>
+      <c r="V3" s="141">
         <v>10</v>
       </c>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127">
+      <c r="W3" s="141"/>
+      <c r="X3" s="141">
         <v>11</v>
       </c>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127">
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="141">
         <v>12</v>
       </c>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="127">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141">
         <v>13</v>
       </c>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="127">
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="141">
         <v>14</v>
       </c>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="127">
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="141">
         <v>15</v>
       </c>
-      <c r="AG3" s="127"/>
+      <c r="AG3" s="141"/>
       <c r="AH3" s="2">
         <v>0</v>
       </c>
@@ -6066,48 +6093,48 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="138" t="s">
+      <c r="C4" s="152"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="138"/>
-      <c r="J4" s="137" t="s">
+      <c r="I4" s="152"/>
+      <c r="J4" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="137"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="138" t="s">
+      <c r="K4" s="151"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="137" t="s">
+      <c r="Y4" s="152"/>
+      <c r="Z4" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="137"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="142"/>
+      <c r="AC4" s="142"/>
+      <c r="AD4" s="143"/>
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="143"/>
+      <c r="AG4" s="143"/>
       <c r="AH4" s="19"/>
       <c r="AI4" s="87"/>
       <c r="AJ4" s="19"/>
@@ -6180,48 +6207,48 @@
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="133" t="s">
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="133"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="133" t="s">
+      <c r="G5" s="147"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="133"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="130" t="s">
+      <c r="M5" s="147"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="133" t="s">
+      <c r="Q5" s="144"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="AC5" s="133"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="130" t="s">
+      <c r="AC5" s="147"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="AG5" s="130"/>
+      <c r="AG5" s="144"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="99"/>
       <c r="AJ5" s="19"/>
@@ -6299,40 +6326,40 @@
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="134" t="s">
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="142"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="142"/>
+      <c r="W6" s="142"/>
+      <c r="X6" s="142"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="142"/>
+      <c r="AA6" s="142"/>
+      <c r="AB6" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="129"/>
+      <c r="AC6" s="148"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="143"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="99"/>
       <c r="AJ6" s="19"/>
@@ -6388,58 +6415,58 @@
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="135" t="s">
+      <c r="C7" s="149"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135" t="s">
+      <c r="G7" s="149"/>
+      <c r="H7" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="135"/>
-      <c r="J7" s="131" t="s">
+      <c r="I7" s="149"/>
+      <c r="J7" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="131"/>
-      <c r="L7" s="135" t="s">
+      <c r="K7" s="145"/>
+      <c r="L7" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="135"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="131" t="s">
+      <c r="M7" s="149"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="135" t="s">
+      <c r="Q7" s="145"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="153"/>
+      <c r="U7" s="153"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="142"/>
+      <c r="X7" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="135"/>
-      <c r="Z7" s="131" t="s">
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="135" t="s">
+      <c r="AA7" s="145"/>
+      <c r="AB7" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="AC7" s="135"/>
-      <c r="AD7" s="132"/>
-      <c r="AE7" s="132"/>
-      <c r="AF7" s="131" t="s">
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="146"/>
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="AG7" s="131"/>
+      <c r="AG7" s="145"/>
       <c r="AH7" s="19"/>
       <c r="AJ7" s="19"/>
       <c r="AK7" s="95" t="s">
@@ -6540,40 +6567,40 @@
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="129"/>
-      <c r="S8" s="129"/>
-      <c r="T8" s="129"/>
-      <c r="U8" s="129"/>
-      <c r="V8" s="129"/>
-      <c r="W8" s="129"/>
-      <c r="X8" s="129"/>
-      <c r="Y8" s="129"/>
-      <c r="Z8" s="129"/>
-      <c r="AA8" s="129"/>
-      <c r="AB8" s="136" t="s">
+      <c r="B8" s="143"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="143"/>
+      <c r="R8" s="143"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="143"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="AC8" s="136"/>
-      <c r="AD8" s="129"/>
-      <c r="AE8" s="129"/>
-      <c r="AF8" s="129"/>
-      <c r="AG8" s="129"/>
+      <c r="AC8" s="150"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="143"/>
+      <c r="AG8" s="143"/>
       <c r="AH8" s="40"/>
       <c r="AI8" s="99"/>
       <c r="AJ8" s="40"/>
@@ -6623,42 +6650,42 @@
         <v>5</v>
       </c>
       <c r="B9" s="121"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="140" t="s">
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="140"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="140" t="s">
+      <c r="L9" s="158"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="140"/>
+      <c r="R9" s="158"/>
       <c r="S9" s="122"/>
-      <c r="U9" s="141" t="s">
+      <c r="U9" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="V9" s="141"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="144"/>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="128"/>
-      <c r="AG9" s="146"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="142"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="155"/>
+      <c r="AB9" s="155"/>
+      <c r="AC9" s="142"/>
+      <c r="AD9" s="142"/>
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="131"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="94" t="s">
         <v>21</v>
@@ -6708,8 +6735,8 @@
         <v>21</v>
       </c>
       <c r="BP9" s="19"/>
-      <c r="BR9" s="147"/>
-      <c r="BU9" s="147"/>
+      <c r="BR9" s="132"/>
+      <c r="BU9" s="132"/>
       <c r="BV9" s="99"/>
       <c r="BW9" s="19"/>
       <c r="BX9" s="19"/>
@@ -6727,43 +6754,43 @@
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="140" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="140"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="140" t="s">
+      <c r="N10" s="158"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="140"/>
+      <c r="T10" s="158"/>
       <c r="U10" s="121"/>
-      <c r="W10" s="141" t="s">
+      <c r="W10" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="141"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="145"/>
-      <c r="AD10" s="145"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="128"/>
+      <c r="X10" s="157"/>
+      <c r="Y10" s="142"/>
+      <c r="Z10" s="142"/>
+      <c r="AA10" s="142"/>
+      <c r="AB10" s="142"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="156"/>
+      <c r="AE10" s="142"/>
+      <c r="AF10" s="142"/>
       <c r="AG10" s="121"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
@@ -6814,8 +6841,8 @@
       <c r="BP10" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="BS10" s="147"/>
-      <c r="BV10" s="147"/>
+      <c r="BS10" s="132"/>
+      <c r="BV10" s="132"/>
       <c r="BW10" s="110"/>
       <c r="BX10" s="19"/>
       <c r="BZ10" s="19"/>
@@ -6831,70 +6858,70 @@
     <row r="11" spans="1:82" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="142">
+      <c r="C11" s="154">
         <v>0</v>
       </c>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142">
+      <c r="D11" s="154"/>
+      <c r="E11" s="154">
         <v>1</v>
       </c>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142">
+      <c r="F11" s="154"/>
+      <c r="G11" s="154">
         <v>2</v>
       </c>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142">
+      <c r="H11" s="154"/>
+      <c r="I11" s="154">
         <v>3</v>
       </c>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142">
+      <c r="J11" s="154"/>
+      <c r="K11" s="154">
         <v>4</v>
       </c>
-      <c r="L11" s="142"/>
-      <c r="M11" s="142">
+      <c r="L11" s="154"/>
+      <c r="M11" s="154">
         <v>5</v>
       </c>
-      <c r="N11" s="142"/>
-      <c r="O11" s="142">
+      <c r="N11" s="154"/>
+      <c r="O11" s="154">
         <v>6</v>
       </c>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="142">
+      <c r="P11" s="154"/>
+      <c r="Q11" s="154">
         <v>7</v>
       </c>
-      <c r="R11" s="142"/>
-      <c r="S11" s="142">
+      <c r="R11" s="154"/>
+      <c r="S11" s="154">
         <v>8</v>
       </c>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142">
+      <c r="T11" s="154"/>
+      <c r="U11" s="154">
         <v>9</v>
       </c>
-      <c r="V11" s="142"/>
-      <c r="W11" s="142">
+      <c r="V11" s="154"/>
+      <c r="W11" s="154">
         <v>10</v>
       </c>
-      <c r="X11" s="142"/>
-      <c r="Y11" s="142">
+      <c r="X11" s="154"/>
+      <c r="Y11" s="154">
         <v>11</v>
       </c>
-      <c r="Z11" s="142"/>
-      <c r="AA11" s="142">
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="154">
         <v>12</v>
       </c>
-      <c r="AB11" s="142"/>
-      <c r="AC11" s="142">
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154">
         <v>13</v>
       </c>
-      <c r="AD11" s="142"/>
-      <c r="AE11" s="142">
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="154">
         <v>14</v>
       </c>
-      <c r="AF11" s="142"/>
-      <c r="AG11" s="143">
+      <c r="AF11" s="154"/>
+      <c r="AG11" s="130">
         <v>15</v>
       </c>
-      <c r="AH11" s="143"/>
+      <c r="AH11" s="130"/>
       <c r="AK11" s="19"/>
       <c r="AL11" s="19"/>
       <c r="AM11" s="19"/>
@@ -6940,6 +6967,21 @@
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
     <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="AC11:AD11"/>
     <mergeCell ref="AE11:AF11"/>
@@ -6952,22 +6994,7 @@
     <mergeCell ref="AC9:AD9"/>
     <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
     <mergeCell ref="W10:X10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="G10:H10"/>
@@ -7107,168 +7134,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125" t="s">
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125" t="s">
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125" t="s">
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="125"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="125" t="s">
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="139"/>
+      <c r="AG1" s="139"/>
+      <c r="AH1" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="125"/>
-      <c r="AK1" s="125"/>
-      <c r="AL1" s="125"/>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="125" t="s">
+      <c r="AI1" s="139"/>
+      <c r="AJ1" s="139"/>
+      <c r="AK1" s="139"/>
+      <c r="AL1" s="139"/>
+      <c r="AM1" s="139"/>
+      <c r="AN1" s="139"/>
+      <c r="AO1" s="139"/>
+      <c r="AP1" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="125"/>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="125"/>
-      <c r="AT1" s="125"/>
-      <c r="AU1" s="125"/>
-      <c r="AV1" s="125"/>
-      <c r="AW1" s="125"/>
-      <c r="AX1" s="126" t="s">
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="139"/>
+      <c r="AT1" s="139"/>
+      <c r="AU1" s="139"/>
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="139"/>
+      <c r="AX1" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="126"/>
-      <c r="AZ1" s="126"/>
-      <c r="BA1" s="126"/>
-      <c r="BB1" s="126"/>
-      <c r="BC1" s="126"/>
-      <c r="BD1" s="126"/>
-      <c r="BE1" s="126"/>
-      <c r="BF1" s="125" t="s">
+      <c r="AY1" s="140"/>
+      <c r="AZ1" s="140"/>
+      <c r="BA1" s="140"/>
+      <c r="BB1" s="140"/>
+      <c r="BC1" s="140"/>
+      <c r="BD1" s="140"/>
+      <c r="BE1" s="140"/>
+      <c r="BF1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="BG1" s="125"/>
-      <c r="BH1" s="125"/>
-      <c r="BI1" s="125"/>
-      <c r="BJ1" s="125"/>
-      <c r="BK1" s="125"/>
-      <c r="BL1" s="125"/>
-      <c r="BM1" s="125"/>
+      <c r="BG1" s="139"/>
+      <c r="BH1" s="139"/>
+      <c r="BI1" s="139"/>
+      <c r="BJ1" s="139"/>
+      <c r="BK1" s="139"/>
+      <c r="BL1" s="139"/>
+      <c r="BM1" s="139"/>
     </row>
     <row r="2" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124" t="s">
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124" t="s">
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124" t="s">
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124" t="s">
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="124"/>
-      <c r="AM2" s="124"/>
-      <c r="AN2" s="124"/>
-      <c r="AO2" s="124"/>
-      <c r="AP2" s="124" t="s">
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="AQ2" s="124"/>
-      <c r="AR2" s="124"/>
-      <c r="AS2" s="124"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="124"/>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="124" t="s">
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="AY2" s="124"/>
-      <c r="AZ2" s="124"/>
-      <c r="BA2" s="124"/>
-      <c r="BB2" s="124"/>
-      <c r="BC2" s="124"/>
-      <c r="BD2" s="124"/>
-      <c r="BE2" s="124"/>
-      <c r="BF2" s="124" t="s">
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="BG2" s="124"/>
-      <c r="BH2" s="124"/>
-      <c r="BI2" s="124"/>
-      <c r="BJ2" s="124"/>
-      <c r="BK2" s="124"/>
-      <c r="BL2" s="124"/>
-      <c r="BM2" s="124"/>
+      <c r="BG2" s="138"/>
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="138"/>
+      <c r="BK2" s="138"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
     </row>
     <row r="3" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -8141,8 +8168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17:AO17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8152,168 +8179,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125" t="s">
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125" t="s">
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125" t="s">
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="125"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="125" t="s">
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="139"/>
+      <c r="AG1" s="139"/>
+      <c r="AH1" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="125"/>
-      <c r="AK1" s="125"/>
-      <c r="AL1" s="125"/>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="125" t="s">
+      <c r="AI1" s="139"/>
+      <c r="AJ1" s="139"/>
+      <c r="AK1" s="139"/>
+      <c r="AL1" s="139"/>
+      <c r="AM1" s="139"/>
+      <c r="AN1" s="139"/>
+      <c r="AO1" s="139"/>
+      <c r="AP1" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="125"/>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="125"/>
-      <c r="AT1" s="125"/>
-      <c r="AU1" s="125"/>
-      <c r="AV1" s="125"/>
-      <c r="AW1" s="125"/>
-      <c r="AX1" s="126" t="s">
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="139"/>
+      <c r="AT1" s="139"/>
+      <c r="AU1" s="139"/>
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="139"/>
+      <c r="AX1" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="126"/>
-      <c r="AZ1" s="126"/>
-      <c r="BA1" s="126"/>
-      <c r="BB1" s="126"/>
-      <c r="BC1" s="126"/>
-      <c r="BD1" s="126"/>
-      <c r="BE1" s="126"/>
-      <c r="BF1" s="125" t="s">
+      <c r="AY1" s="140"/>
+      <c r="AZ1" s="140"/>
+      <c r="BA1" s="140"/>
+      <c r="BB1" s="140"/>
+      <c r="BC1" s="140"/>
+      <c r="BD1" s="140"/>
+      <c r="BE1" s="140"/>
+      <c r="BF1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="BG1" s="125"/>
-      <c r="BH1" s="125"/>
-      <c r="BI1" s="125"/>
-      <c r="BJ1" s="125"/>
-      <c r="BK1" s="125"/>
-      <c r="BL1" s="125"/>
-      <c r="BM1" s="125"/>
+      <c r="BG1" s="139"/>
+      <c r="BH1" s="139"/>
+      <c r="BI1" s="139"/>
+      <c r="BJ1" s="139"/>
+      <c r="BK1" s="139"/>
+      <c r="BL1" s="139"/>
+      <c r="BM1" s="139"/>
     </row>
     <row r="2" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124" t="s">
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124" t="s">
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124" t="s">
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124" t="s">
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="124"/>
-      <c r="AM2" s="124"/>
-      <c r="AN2" s="124"/>
-      <c r="AO2" s="124"/>
-      <c r="AP2" s="124" t="s">
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="AQ2" s="124"/>
-      <c r="AR2" s="124"/>
-      <c r="AS2" s="124"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="124"/>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="124" t="s">
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="AY2" s="124"/>
-      <c r="AZ2" s="124"/>
-      <c r="BA2" s="124"/>
-      <c r="BB2" s="124"/>
-      <c r="BC2" s="124"/>
-      <c r="BD2" s="124"/>
-      <c r="BE2" s="124"/>
-      <c r="BF2" s="124" t="s">
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="BG2" s="124"/>
-      <c r="BH2" s="124"/>
-      <c r="BI2" s="124"/>
-      <c r="BJ2" s="124"/>
-      <c r="BK2" s="124"/>
-      <c r="BL2" s="124"/>
-      <c r="BM2" s="124"/>
+      <c r="BG2" s="138"/>
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="138"/>
+      <c r="BK2" s="138"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
     </row>
     <row r="3" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -8322,7 +8349,7 @@
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="134">
         <v>1</v>
       </c>
       <c r="D3" s="2">
@@ -8331,22 +8358,22 @@
       <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="134">
         <v>4</v>
       </c>
       <c r="G3" s="2">
         <v>5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="136">
         <v>6</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="134">
         <v>7</v>
       </c>
       <c r="J3" s="2">
         <v>8</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="134">
         <v>9</v>
       </c>
       <c r="L3" s="2">
@@ -8355,16 +8382,16 @@
       <c r="M3" s="2">
         <v>11</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="134">
         <v>12</v>
       </c>
       <c r="O3" s="2">
         <v>13</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="136">
         <v>14</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="134">
         <v>15</v>
       </c>
       <c r="R3" s="2">
@@ -8522,29 +8549,31 @@
       <c r="B4" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="113"/>
+      <c r="C4" s="128" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" s="110"/>
       <c r="E4" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="F4" s="63"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="110"/>
+      <c r="K4" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="110"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="114"/>
       <c r="L4" s="110"/>
       <c r="M4" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="116" t="s">
-        <v>21</v>
-      </c>
+      <c r="N4" s="63"/>
       <c r="O4" s="110"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="63"/>
       <c r="R4" s="110"/>
       <c r="S4" s="114"/>
       <c r="T4" s="110"/>
@@ -8618,29 +8647,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="110"/>
-      <c r="C5" s="113"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="115" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="110"/>
-      <c r="F5" s="114"/>
+      <c r="F5" s="125" t="s">
+        <v>16</v>
+      </c>
       <c r="G5" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="118" t="s">
-        <v>16</v>
-      </c>
+      <c r="H5" s="123"/>
+      <c r="I5" s="135"/>
       <c r="J5" s="110"/>
-      <c r="K5" s="114"/>
+      <c r="K5" s="135"/>
       <c r="L5" s="110"/>
       <c r="M5" s="110"/>
-      <c r="N5" s="114"/>
+      <c r="N5" s="125" t="s">
+        <v>16</v>
+      </c>
       <c r="O5" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="118" t="s">
+      <c r="P5" s="127"/>
+      <c r="Q5" s="125" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="110"/>
@@ -8721,23 +8752,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="110"/>
-      <c r="C6" s="114"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="110"/>
       <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="110"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="110"/>
-      <c r="K6" s="114"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="110"/>
       <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
+      <c r="N6" s="63"/>
       <c r="O6" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="112"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="63"/>
       <c r="R6" s="110"/>
       <c r="S6" s="99"/>
       <c r="T6" s="110"/>
@@ -8796,37 +8827,41 @@
       <c r="B7" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="113"/>
+      <c r="C7" s="126" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="111" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="126" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="117" t="s">
+      <c r="H7" s="123"/>
+      <c r="I7" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="110"/>
+      <c r="K7" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="113"/>
       <c r="L7" s="110"/>
       <c r="M7" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="117" t="s">
-        <v>21</v>
+      <c r="N7" s="126" t="s">
+        <v>16</v>
       </c>
       <c r="O7" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="117" t="s">
+      <c r="P7" s="127"/>
+      <c r="Q7" s="126" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="110"/>
@@ -8930,23 +8965,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="112"/>
       <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
+      <c r="K8" s="63"/>
       <c r="L8" s="112"/>
       <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
+      <c r="N8" s="63"/>
       <c r="O8" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
+      <c r="P8" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="63"/>
       <c r="R8" s="112"/>
       <c r="S8" s="99"/>
       <c r="T8" s="112"/>
@@ -8955,7 +8992,9 @@
       <c r="W8" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="112"/>
+      <c r="X8" s="133" t="s">
+        <v>25</v>
+      </c>
       <c r="Y8" s="112"/>
       <c r="Z8" s="112"/>
       <c r="AA8" s="112"/>
@@ -9003,23 +9042,26 @@
         <v>17</v>
       </c>
       <c r="H9" s="110"/>
+      <c r="I9" s="129" t="s">
+        <v>16</v>
+      </c>
       <c r="J9" s="74" t="s">
         <v>18</v>
       </c>
       <c r="K9" s="97"/>
-      <c r="L9" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="110"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
       <c r="N9" s="110"/>
       <c r="O9" s="110"/>
       <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
+      <c r="Q9" s="129" t="s">
+        <v>16</v>
+      </c>
       <c r="R9" s="110"/>
-      <c r="T9" s="94" t="s">
+      <c r="T9" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="110"/>
+      <c r="U9" s="123"/>
       <c r="V9" s="110"/>
       <c r="W9" s="110"/>
       <c r="X9" s="112"/>
@@ -9093,19 +9135,15 @@
       <c r="K10" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="110"/>
-      <c r="M10" s="94" t="s">
-        <v>16</v>
-      </c>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
       <c r="N10" s="110"/>
       <c r="O10" s="102"/>
       <c r="P10" s="110"/>
       <c r="Q10" s="110"/>
       <c r="R10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="94" t="s">
-        <v>21</v>
-      </c>
+      <c r="T10" s="123"/>
+      <c r="U10" s="123"/>
       <c r="V10" s="110"/>
       <c r="W10" s="110"/>
       <c r="X10" s="112"/>
@@ -9180,7 +9218,8 @@
       <c r="P11" s="110"/>
       <c r="Q11" s="110"/>
       <c r="R11" s="110"/>
-      <c r="U11" s="110"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="123"/>
       <c r="V11" s="110"/>
       <c r="W11" s="110"/>
       <c r="X11" s="110"/>
@@ -9215,168 +9254,168 @@
       <c r="BE13" s="99"/>
     </row>
     <row r="16" spans="1:67" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125" t="s">
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125" t="s">
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
-      <c r="W16" s="125"/>
-      <c r="X16" s="125"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="125" t="s">
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="AA16" s="125"/>
-      <c r="AB16" s="125"/>
-      <c r="AC16" s="125"/>
-      <c r="AD16" s="125"/>
-      <c r="AE16" s="125"/>
-      <c r="AF16" s="125"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="125" t="s">
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="139"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="139"/>
+      <c r="AH16" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="AI16" s="125"/>
-      <c r="AJ16" s="125"/>
-      <c r="AK16" s="125"/>
-      <c r="AL16" s="125"/>
-      <c r="AM16" s="125"/>
-      <c r="AN16" s="125"/>
-      <c r="AO16" s="125"/>
-      <c r="AP16" s="125" t="s">
+      <c r="AI16" s="139"/>
+      <c r="AJ16" s="139"/>
+      <c r="AK16" s="139"/>
+      <c r="AL16" s="139"/>
+      <c r="AM16" s="139"/>
+      <c r="AN16" s="139"/>
+      <c r="AO16" s="139"/>
+      <c r="AP16" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="AQ16" s="125"/>
-      <c r="AR16" s="125"/>
-      <c r="AS16" s="125"/>
-      <c r="AT16" s="125"/>
-      <c r="AU16" s="125"/>
-      <c r="AV16" s="125"/>
-      <c r="AW16" s="125"/>
-      <c r="AX16" s="126" t="s">
+      <c r="AQ16" s="139"/>
+      <c r="AR16" s="139"/>
+      <c r="AS16" s="139"/>
+      <c r="AT16" s="139"/>
+      <c r="AU16" s="139"/>
+      <c r="AV16" s="139"/>
+      <c r="AW16" s="139"/>
+      <c r="AX16" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="AY16" s="126"/>
-      <c r="AZ16" s="126"/>
-      <c r="BA16" s="126"/>
-      <c r="BB16" s="126"/>
-      <c r="BC16" s="126"/>
-      <c r="BD16" s="126"/>
-      <c r="BE16" s="126"/>
-      <c r="BF16" s="125" t="s">
+      <c r="AY16" s="140"/>
+      <c r="AZ16" s="140"/>
+      <c r="BA16" s="140"/>
+      <c r="BB16" s="140"/>
+      <c r="BC16" s="140"/>
+      <c r="BD16" s="140"/>
+      <c r="BE16" s="140"/>
+      <c r="BF16" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="BG16" s="125"/>
-      <c r="BH16" s="125"/>
-      <c r="BI16" s="125"/>
-      <c r="BJ16" s="125"/>
-      <c r="BK16" s="125"/>
-      <c r="BL16" s="125"/>
-      <c r="BM16" s="125"/>
+      <c r="BG16" s="139"/>
+      <c r="BH16" s="139"/>
+      <c r="BI16" s="139"/>
+      <c r="BJ16" s="139"/>
+      <c r="BK16" s="139"/>
+      <c r="BL16" s="139"/>
+      <c r="BM16" s="139"/>
     </row>
     <row r="17" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124" t="s">
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124" t="s">
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="148" t="s">
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="138"/>
+      <c r="W17" s="138"/>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="AA17" s="149"/>
-      <c r="AB17" s="149"/>
-      <c r="AC17" s="149"/>
-      <c r="AD17" s="149"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="149"/>
-      <c r="AG17" s="150"/>
-      <c r="AH17" s="148" t="s">
+      <c r="AA17" s="160"/>
+      <c r="AB17" s="160"/>
+      <c r="AC17" s="160"/>
+      <c r="AD17" s="160"/>
+      <c r="AE17" s="160"/>
+      <c r="AF17" s="160"/>
+      <c r="AG17" s="161"/>
+      <c r="AH17" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="AI17" s="149"/>
-      <c r="AJ17" s="149"/>
-      <c r="AK17" s="149"/>
-      <c r="AL17" s="149"/>
-      <c r="AM17" s="149"/>
-      <c r="AN17" s="149"/>
-      <c r="AO17" s="150"/>
-      <c r="AP17" s="124" t="s">
+      <c r="AI17" s="160"/>
+      <c r="AJ17" s="160"/>
+      <c r="AK17" s="160"/>
+      <c r="AL17" s="160"/>
+      <c r="AM17" s="160"/>
+      <c r="AN17" s="160"/>
+      <c r="AO17" s="161"/>
+      <c r="AP17" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="AQ17" s="124"/>
-      <c r="AR17" s="124"/>
-      <c r="AS17" s="124"/>
-      <c r="AT17" s="124"/>
-      <c r="AU17" s="124"/>
-      <c r="AV17" s="124"/>
-      <c r="AW17" s="124"/>
-      <c r="AX17" s="124" t="s">
+      <c r="AQ17" s="138"/>
+      <c r="AR17" s="138"/>
+      <c r="AS17" s="138"/>
+      <c r="AT17" s="138"/>
+      <c r="AU17" s="138"/>
+      <c r="AV17" s="138"/>
+      <c r="AW17" s="138"/>
+      <c r="AX17" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="AY17" s="124"/>
-      <c r="AZ17" s="124"/>
-      <c r="BA17" s="124"/>
-      <c r="BB17" s="124"/>
-      <c r="BC17" s="124"/>
-      <c r="BD17" s="124"/>
-      <c r="BE17" s="124"/>
-      <c r="BF17" s="124" t="s">
+      <c r="AY17" s="138"/>
+      <c r="AZ17" s="138"/>
+      <c r="BA17" s="138"/>
+      <c r="BB17" s="138"/>
+      <c r="BC17" s="138"/>
+      <c r="BD17" s="138"/>
+      <c r="BE17" s="138"/>
+      <c r="BF17" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="BG17" s="124"/>
-      <c r="BH17" s="124"/>
-      <c r="BI17" s="124"/>
-      <c r="BJ17" s="124"/>
-      <c r="BK17" s="124"/>
-      <c r="BL17" s="124"/>
-      <c r="BM17" s="124"/>
+      <c r="BG17" s="138"/>
+      <c r="BH17" s="138"/>
+      <c r="BI17" s="138"/>
+      <c r="BJ17" s="138"/>
+      <c r="BK17" s="138"/>
+      <c r="BL17" s="138"/>
+      <c r="BM17" s="138"/>
     </row>
     <row r="18" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
